--- a/47.zooguideusa/extracted_data/47.Data.xlsx
+++ b/47.zooguideusa/extracted_data/47.Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="554">
   <si>
     <t>name</t>
   </si>
@@ -23,130 +23,196 @@
     <t>address</t>
   </si>
   <si>
+    <t>phone</t>
+  </si>
+  <si>
     <t>Kids Country Farm 15746</t>
   </si>
   <si>
-    <t>Beasley Rd Foley, Alabama 36535-8558 334-965-7451</t>
+    <t>Beasley Rd Foley, Alabama 36535-8558</t>
+  </si>
+  <si>
+    <t>334-965-7451</t>
   </si>
   <si>
     <t>Zooland Animal Park</t>
   </si>
   <si>
-    <t>1204 Gulf Shores Pkwy Gulf Shores, Alabama 36542-5908 334-968-5731</t>
+    <t>1204 Gulf Shores Pkwy Gulf Shores, Alabama 36542-5908</t>
+  </si>
+  <si>
+    <t>334-968-5731</t>
   </si>
   <si>
     <t>Limestone Zoological</t>
   </si>
   <si>
-    <t>Park 30193 Nick Davis Rd Harvest, Alabama 35749-7019 256-230-0330</t>
+    <t>Park 30193 Nick Davis Rd Harvest, Alabama 35749-7019</t>
+  </si>
+  <si>
+    <t>256-230-0330</t>
   </si>
   <si>
     <t>Animal House Exotic</t>
   </si>
   <si>
-    <t>Animals 2056 County Road 161 Moulton, AL 35650-8942 256-974-8634</t>
+    <t>Animals 2056 County Road 161 Moulton, AL 35650-8942</t>
+  </si>
+  <si>
+    <t>256-974-8634</t>
   </si>
   <si>
     <t>Pet-R-Pets Zoo &amp; Pony</t>
   </si>
   <si>
-    <t>Rides 25236 Patterson Rd Robertsdale, AL 36567-4324 334-960-1446</t>
+    <t>Rides 25236 Patterson Rd Robertsdale, AL 36567-4324</t>
+  </si>
+  <si>
+    <t>334-960-1446</t>
   </si>
   <si>
     <t>Grand Oak Wildlife Park</t>
   </si>
   <si>
-    <t>302 Industrial Pkwy Saraland, AL 36571-3706 334-679-5757</t>
+    <t>302 Industrial Pkwy Saraland, AL 36571-3706</t>
+  </si>
+  <si>
+    <t>334-679-5757</t>
   </si>
   <si>
     <t>Hqh Western World &amp; Zoo</t>
   </si>
   <si>
-    <t>15161 Ward Rd W Wilmer, AL 36587-4011 334-649-1845</t>
+    <t>15161 Ward Rd W Wilmer, AL 36587-4011</t>
+  </si>
+  <si>
+    <t>334-649-1845</t>
   </si>
   <si>
     <t>Old Mac Donald’s</t>
   </si>
   <si>
-    <t>Petting Zoo 7826 Us Highway 72 Woodville, AL 35776-6428 256-776-4332</t>
+    <t>Petting Zoo 7826 Us Highway 72 Woodville, AL 35776-6428</t>
+  </si>
+  <si>
+    <t>256-776-4332</t>
   </si>
   <si>
     <t>Douglas Wildlife Zoo</t>
   </si>
   <si>
-    <t>4000 N Plantation Rd Douglas, Arizona 85607-6028 520-364-2515</t>
+    <t>4000 N Plantation Rd Douglas, Arizona 85607-6028</t>
+  </si>
+  <si>
+    <t>520-364-2515</t>
   </si>
   <si>
     <t>Wildlife World Zoo</t>
   </si>
   <si>
-    <t>16501 W Northern Ave Litchfield Park, Arizona 85340-9466 623-935-9453</t>
+    <t>16501 W Northern Ave Litchfield Park, Arizona 85340-9466</t>
+  </si>
+  <si>
+    <t>623-935-9453</t>
   </si>
   <si>
     <t>Payson Exotic Studio</t>
   </si>
   <si>
-    <t>Animals Lion Springs Payson, Arizona 85541 520-474-5435</t>
+    <t>Animals Lion Springs Payson, Arizona 85541</t>
+  </si>
+  <si>
+    <t>520-474-5435</t>
   </si>
   <si>
     <t>Heritage Park Zoo 1403</t>
   </si>
   <si>
-    <t>Heritage Park Rd Prescott, AZ 86301-6001 520-778-4242</t>
+    <t>Heritage Park Rd Prescott, AZ 86301-6001</t>
+  </si>
+  <si>
+    <t>520-778-4242</t>
   </si>
   <si>
     <t>Out Of Africa Wildlife</t>
   </si>
   <si>
-    <t>Park 2 N Fort Mcdowell Rd Scottsdale, AZ 85264 480-837-7779</t>
+    <t>Park 2 N Fort Mcdowell Rd Scottsdale, AZ 85264</t>
+  </si>
+  <si>
+    <t>480-837-7779</t>
   </si>
   <si>
     <t>Tucson Zoological</t>
   </si>
   <si>
-    <t>Society 900 5 Randolph Way Tucson, AZ 85716-5834 520-881-1078</t>
+    <t>Society 900 5 Randolph Way Tucson, AZ 85716-5834</t>
+  </si>
+  <si>
+    <t>520-881-1078</t>
   </si>
   <si>
     <t>Puffs Zoo 1215 E Main</t>
   </si>
   <si>
-    <t>St Batesville, Arkansas 72501-3018 870-698-0711</t>
+    <t>St Batesville, Arkansas 72501-3018</t>
+  </si>
+  <si>
+    <t>870-698-0711</t>
   </si>
   <si>
     <t>Rainforest 257 Scenic</t>
   </si>
   <si>
-    <t>Hill Rd Conway, Arkansas 72032-8605 501-470-0999</t>
+    <t>Hill Rd Conway, Arkansas 72032-8605</t>
+  </si>
+  <si>
+    <t>501-470-0999</t>
   </si>
   <si>
     <t>Crossett City Zoo 1141</t>
   </si>
   <si>
-    <t>Parkway Dr Crossett, Arkansas 71635-3819 870-364-7732</t>
+    <t>Parkway Dr Crossett, Arkansas 71635-3819</t>
+  </si>
+  <si>
+    <t>870-364-7732</t>
   </si>
   <si>
     <t>Animal Actors Zoo 380</t>
   </si>
   <si>
-    <t>Whittington Ave Hot Springs, AR 71901-3402 501-623-9695</t>
+    <t>Whittington Ave Hot Springs, AR 71901-3402</t>
+  </si>
+  <si>
+    <t>501-623-9695</t>
   </si>
   <si>
     <t>Kidz N More 301 Spriggs</t>
   </si>
   <si>
-    <t>Rd N Little Rock, AR 72118-2331 501-758-0041</t>
+    <t>Rd N Little Rock, AR 72118-2331</t>
+  </si>
+  <si>
+    <t>501-758-0041</t>
   </si>
   <si>
     <t>Little Rock Zoological</t>
   </si>
   <si>
-    <t>Garden 1 Jonesboro Dr Little Rock, AR 72205-5403 501-663-4733</t>
+    <t>Garden 1 Jonesboro Dr Little Rock, AR 72205-5403</t>
+  </si>
+  <si>
+    <t>501-663-4733</t>
   </si>
   <si>
     <t>Little Rock Zoo 700</t>
   </si>
   <si>
-    <t>Jonesboro Dr Little Rock, AR 72205-5404 501-666-2406</t>
+    <t>Jonesboro Dr Little Rock, AR 72205-5404</t>
+  </si>
+  <si>
+    <t>501-666-2406</t>
   </si>
   <si>
     <t>California Living</t>
@@ -164,94 +230,139 @@
     <t>Sierra Endangered Cat</t>
   </si>
   <si>
-    <t>Haven 38257 E Kings Canyon Rd Dunlap, California 93621-9710 559-338-3216</t>
+    <t>Haven 38257 E Kings Canyon Rd Dunlap, California 93621-9710</t>
+  </si>
+  <si>
+    <t>559-338-3216</t>
   </si>
   <si>
     <t>San Diego Wild Animal</t>
   </si>
   <si>
-    <t>Park 15500 San Pasqual Valley Rd Escondido, CA 92027-7017 760-747-8702</t>
+    <t>Park 15500 San Pasqual Valley Rd Escondido, CA 92027-7017</t>
+  </si>
+  <si>
+    <t>760-747-8702</t>
   </si>
   <si>
     <t>Herbalina Gardens</t>
   </si>
   <si>
-    <t>Aromatherapy P0 Box 2378 Grass Valley, CA 95945-2378 530-273-1693</t>
+    <t>Aromatherapy P0 Box 2378 Grass Valley, CA 95945-2378</t>
+  </si>
+  <si>
+    <t>530-273-1693</t>
   </si>
   <si>
     <t>Micke Grove Zoological</t>
   </si>
   <si>
-    <t>Society 11793 N Micke Grove Rd Lodi, CA 95240-9426 209-368-8992</t>
+    <t>Society 11793 N Micke Grove Rd Lodi, CA 95240-9426</t>
+  </si>
+  <si>
+    <t>209-368-8992</t>
   </si>
   <si>
     <t>Micke Grove Zoo 11793 N</t>
   </si>
   <si>
-    <t>Micke Grove Rd Lodi, CA 95240-9426 209-953-8840</t>
+    <t>Micke Grove Rd Lodi, CA 95240-9426</t>
+  </si>
+  <si>
+    <t>209-953-8840</t>
   </si>
   <si>
     <t>Americas Teaching Zoo</t>
   </si>
   <si>
-    <t>7075 Campus Rd Moorpark, CA 93021-1 605 805-378-1441</t>
+    <t>7075 Campus Rd Moorpark, CA 93021-1 605</t>
+  </si>
+  <si>
+    <t>805-378-1441</t>
   </si>
   <si>
     <t>Oakland Zoo 9777 Golf</t>
   </si>
   <si>
-    <t>Links Rd Oakland, CA 94605-4925 510-632-9523</t>
+    <t>Links Rd Oakland, CA 94605-4925</t>
+  </si>
+  <si>
+    <t>510-632-9523</t>
   </si>
   <si>
     <t>American Wilderness Zoo</t>
   </si>
   <si>
-    <t>1 Mills Cir Ontario, CA 91764-5207 909-481-6604</t>
-  </si>
-  <si>
-    <t>4557 Mills Cir Ontario, CA 91764-5220 909-481-6604</t>
+    <t>1 Mills Cir Ontario, CA 91764-5207</t>
+  </si>
+  <si>
+    <t>909-481-6604</t>
+  </si>
+  <si>
+    <t>4557 Mills Cir Ontario, CA 91764-5220</t>
   </si>
   <si>
     <t>Living Desert 47900</t>
   </si>
   <si>
-    <t>Portola Ave Palm Desert, CA 92260-6156 760-346-5694</t>
+    <t>Portola Ave Palm Desert, CA 92260-6156</t>
+  </si>
+  <si>
+    <t>760-346-5694</t>
   </si>
   <si>
     <t>San Diego Zoo Balboa</t>
   </si>
   <si>
-    <t>Park San Diego, CA 92101 619-234-3153</t>
+    <t>Park San Diego, CA 92101</t>
+  </si>
+  <si>
+    <t>619-234-3153</t>
   </si>
   <si>
     <t>Zoological Society 2920</t>
   </si>
   <si>
-    <t>Zoo Dr San Diego, CA 92101-1646 619-685-3291</t>
+    <t>Zoo Dr San Diego, CA 92101-1646</t>
+  </si>
+  <si>
+    <t>619-685-3291</t>
   </si>
   <si>
     <t>San Francisco Zoo 1 Zoo</t>
   </si>
   <si>
-    <t>Rd San Francisco, CA 941 32-1 098 415-753-7072</t>
+    <t>Rd San Francisco, CA 941 32-1 098</t>
+  </si>
+  <si>
+    <t>415-753-7072</t>
   </si>
   <si>
     <t>Santa Ana Zoo 1801 E</t>
   </si>
   <si>
-    <t>Chestnut Ave Santa Ana, CA 92701-5001 714-835-7484</t>
+    <t>Chestnut Ave Santa Ana, CA 92701-5001</t>
+  </si>
+  <si>
+    <t>714-835-7484</t>
   </si>
   <si>
     <t>Santa Barbara</t>
   </si>
   <si>
-    <t>Zoological Gdns 500 Ninos Dr Santa Barbara, CA 931 03-3798 805-962-5339</t>
+    <t>Zoological Gdns 500 Ninos Dr Santa Barbara, CA 931 03-3798</t>
+  </si>
+  <si>
+    <t>805-962-5339</t>
   </si>
   <si>
     <t>Butterfly Pavilion &amp;</t>
   </si>
   <si>
-    <t>Insect 6252W 104th Ave Broomfield, Colorado 80020-41 07 303-469-5441</t>
+    <t>Insect 6252W 104th Ave Broomfield, Colorado 80020-41 07</t>
+  </si>
+  <si>
+    <t>303-469-5441</t>
   </si>
   <si>
     <t>Cheyenne Mountain Zoo</t>
@@ -263,127 +374,190 @@
     <t>Denver Zoological</t>
   </si>
   <si>
-    <t>Gardens 2300 Steele St Denver, Colorado 80205-4899 303-376-4800</t>
+    <t>Gardens 2300 Steele St Denver, Colorado 80205-4899</t>
+  </si>
+  <si>
+    <t>303-376-4800</t>
   </si>
   <si>
     <t>Reptile Reserve Of SW</t>
   </si>
   <si>
-    <t>Colorado 7900 County Rd 37 Mancos, CO 81328 970-533-7532</t>
+    <t>Colorado 7900 County Rd 37 Mancos, CO 81328</t>
+  </si>
+  <si>
+    <t>970-533-7532</t>
   </si>
   <si>
     <t>Rocky Mountain Wildlife</t>
   </si>
   <si>
-    <t>Park 4821 Highway 84 #A Pagosa Springs, CO 81147-9720 970-264-5546</t>
+    <t>Park 4821 Highway 84 #A Pagosa Springs, CO 81147-9720</t>
+  </si>
+  <si>
+    <t>970-264-5546</t>
   </si>
   <si>
     <t>Pueblo Zoo 3455</t>
   </si>
   <si>
-    <t>Nuckolls Ave Pueblo, CO 81005-1 234 719-561-9664</t>
+    <t>Nuckolls Ave Pueblo, CO 81005-1 234</t>
+  </si>
+  <si>
+    <t>719-561-9664</t>
   </si>
   <si>
     <t>Genesis Zoology Ctr 747</t>
   </si>
   <si>
-    <t>Howard Rd Auburndale, Florida 33823-9683 863-965-8706</t>
+    <t>Howard Rd Auburndale, Florida 33823-9683</t>
+  </si>
+  <si>
+    <t>863-965-8706</t>
   </si>
   <si>
     <t>Marion Nature Park</t>
   </si>
   <si>
-    <t>12888 SE Us Highway 441 Belleview, Florida 34420-4566 352-347-7800</t>
+    <t>12888 SE Us Highway 441 Belleview, Florida 34420-4566</t>
+  </si>
+  <si>
+    <t>352-347-7800</t>
   </si>
   <si>
     <t>Steel City Zoo &amp; Pets</t>
   </si>
   <si>
-    <t>2133 Highway 231 Cottondale, Florida 32431-7625 850-579-1044</t>
+    <t>2133 Highway 231 Cottondale, Florida 32431-7625</t>
+  </si>
+  <si>
+    <t>850-579-1044</t>
   </si>
   <si>
     <t>Sasquatch Zoo Highway</t>
   </si>
   <si>
-    <t>90 E Crestview, FL 32539 850-682-3949</t>
+    <t>90 E Crestview, FL 32539</t>
+  </si>
+  <si>
+    <t>850-682-3949</t>
   </si>
   <si>
     <t>Plantation Critters</t>
   </si>
   <si>
-    <t>6081 Plantation Ln Crestview, FL 32539-9092 850-682-4943</t>
+    <t>6081 Plantation Ln Crestview, FL 32539-9092</t>
+  </si>
+  <si>
+    <t>850-682-4943</t>
   </si>
   <si>
     <t>Old Mc Donald’s Farm</t>
   </si>
   <si>
-    <t>Petting 6941 SW 57th St Davie, FL 33314-7000 954-581-3817</t>
+    <t>Petting 6941 SW 57th St Davie, FL 33314-7000</t>
+  </si>
+  <si>
+    <t>954-581-3817</t>
   </si>
   <si>
     <t>Kountry Kritters 639</t>
   </si>
   <si>
-    <t>Rio Ranchero Rd De Funiak Spgs, FL 32433-6993 850-951-0913</t>
+    <t>Rio Ranchero Rd De Funiak Spgs, FL 32433-6993</t>
+  </si>
+  <si>
+    <t>850-951-0913</t>
   </si>
   <si>
     <t>Little Farm 13401 SW</t>
   </si>
   <si>
-    <t>224th St Goulds, FL 33170-4311 305-258-3186</t>
+    <t>224th St Goulds, FL 33170-4311</t>
+  </si>
+  <si>
+    <t>305-258-3186</t>
   </si>
   <si>
     <t>Zoo &amp; Botanical Gardens</t>
   </si>
   <si>
-    <t>5701 Gulf Breeze Pkwy Gulf Breeze, FL 32561-9553 850-932-2229</t>
+    <t>5701 Gulf Breeze Pkwy Gulf Breeze, FL 32561-9553</t>
+  </si>
+  <si>
+    <t>850-932-2229</t>
   </si>
   <si>
     <t>Jacksonville Zoological</t>
   </si>
   <si>
-    <t>Garden 8605 Zoo Rd Jacksonville, FL 32218-5799 904-757-4462</t>
+    <t>Garden 8605 Zoo Rd Jacksonville, FL 32218-5799</t>
+  </si>
+  <si>
+    <t>904-757-4462</t>
   </si>
   <si>
     <t>Party Animals 1439</t>
   </si>
   <si>
-    <t>Simmons Rd Kissimmee, FL 34744-5631 407-414-1981</t>
+    <t>Simmons Rd Kissimmee, FL 34744-5631</t>
+  </si>
+  <si>
+    <t>407-414-1981</t>
   </si>
   <si>
     <t>Jungleland 4580W Irlo</t>
   </si>
   <si>
-    <t>Bronson MemI Hwy Kissimmee, FL 34746-5304 407-396-1012</t>
+    <t>Bronson MemI Hwy Kissimmee, FL 34746-5304</t>
+  </si>
+  <si>
+    <t>407-396-1012</t>
   </si>
   <si>
     <t>Suwannee Valley Zoo</t>
   </si>
   <si>
-    <t>Mershon Rd Lake City, FL 32055 904-755-8933</t>
+    <t>Mershon Rd Lake City, FL 32055</t>
+  </si>
+  <si>
+    <t>904-755-8933</t>
   </si>
   <si>
     <t>Jungle Larry’s</t>
   </si>
   <si>
-    <t>Zoological Park 1590 Goodlette Rd N Naples, FL 34102-5297 941-262-5409</t>
+    <t>Zoological Park 1590 Goodlette Rd N Naples, FL 34102-5297</t>
+  </si>
+  <si>
+    <t>941-262-5409</t>
   </si>
   <si>
     <t>Bird Gardens 1060</t>
   </si>
   <si>
-    <t>Purple Martin Dr Naples, FL 34120-4868 941-348-8880</t>
+    <t>Purple Martin Dr Naples, FL 34120-4868</t>
+  </si>
+  <si>
+    <t>941-348-8880</t>
   </si>
   <si>
     <t>Chimp Farm Inc 4612 Alt</t>
   </si>
   <si>
-    <t>19 Palm Harbor, FL 34683-1 437 727-943-5897</t>
+    <t>19 Palm Harbor, FL 34683-1 437</t>
+  </si>
+  <si>
+    <t>727-943-5897</t>
   </si>
   <si>
     <t>Zoo World 9008 Front</t>
   </si>
   <si>
-    <t>Beach Rd Panama City Bch, FL 32407-4212 850-230-1243</t>
+    <t>Beach Rd Panama City Bch, FL 32407-4212</t>
+  </si>
+  <si>
+    <t>850-230-1243</t>
   </si>
   <si>
     <t>Central Florida</t>
@@ -395,31 +569,46 @@
     <t>Sarasota-Bradenton</t>
   </si>
   <si>
-    <t>Children’s 7512 N Tamiami Trl Sarasota, FL 34243-1805 941-360-8315</t>
+    <t>Children’s 7512 N Tamiami Trl Sarasota, FL 34243-1805</t>
+  </si>
+  <si>
+    <t>941-360-8315</t>
   </si>
   <si>
     <t>La Porte Farms Mobile</t>
   </si>
   <si>
-    <t>Petting 7700 129th St Sebastian, FL 32958-3627 561-388-1824</t>
+    <t>Petting 7700 129th St Sebastian, FL 32958-3627</t>
+  </si>
+  <si>
+    <t>561-388-1824</t>
   </si>
   <si>
     <t>Lowry Park Zoological</t>
   </si>
   <si>
-    <t>Garden 7530 N Boulevard Tampa, FL 33604-4756 813-935-8552</t>
+    <t>Garden 7530 N Boulevard Tampa, FL 33604-4756</t>
+  </si>
+  <si>
+    <t>813-935-8552</t>
   </si>
   <si>
     <t>Wildlife On Easy Street</t>
   </si>
   <si>
-    <t>12802 Easy St Tampa, FL 33625-3702 813-920-4130</t>
+    <t>12802 Easy St Tampa, FL 33625-3702</t>
+  </si>
+  <si>
+    <t>813-920-4130</t>
   </si>
   <si>
     <t>Palm Beach Zoo 1301</t>
   </si>
   <si>
-    <t>Summit Blvd West Palm Beach, FL 33405-3035 561-547-9453</t>
+    <t>Summit Blvd West Palm Beach, FL 33405-3035</t>
+  </si>
+  <si>
+    <t>561-547-9453</t>
   </si>
   <si>
     <t>School Group</t>
@@ -431,163 +620,244 @@
     <t>Storyland Village &amp;</t>
   </si>
   <si>
-    <t>Petting Highway 75 N Cleveland, Georgia 30528 706-219-4081</t>
+    <t>Petting Highway 75 N Cleveland, Georgia 30528</t>
+  </si>
+  <si>
+    <t>706-219-4081</t>
   </si>
   <si>
     <t>Yellow River Game Ranch</t>
   </si>
   <si>
-    <t>4525 Hwy 78 Lilburn, Georgia 30047-4527 770-972-6643</t>
+    <t>4525 Hwy 78 Lilburn, Georgia 30047-4527</t>
+  </si>
+  <si>
+    <t>770-972-6643</t>
   </si>
   <si>
     <t>New York Zoological</t>
   </si>
   <si>
-    <t>Society 182 Camelia Rd Midway, GA 31320-6731 912-884-5006</t>
+    <t>Society 182 Camelia Rd Midway, GA 31320-6731</t>
+  </si>
+  <si>
+    <t>912-884-5006</t>
   </si>
   <si>
     <t>Critters-To-Go 110</t>
   </si>
   <si>
-    <t>Brandy Rd Savannah, GA 31419-9562 912-961-1240</t>
+    <t>Brandy Rd Savannah, GA 31419-9562</t>
+  </si>
+  <si>
+    <t>912-961-1240</t>
   </si>
   <si>
     <t>Wild Adventures 3766</t>
   </si>
   <si>
-    <t>Old Clyattville Rd Valdosta, GA 31601-1704 912-559-1330</t>
+    <t>Old Clyattville Rd Valdosta, GA 31601-1704</t>
+  </si>
+  <si>
+    <t>912-559-1330</t>
   </si>
   <si>
     <t>Chicago Zoological Park</t>
   </si>
   <si>
-    <t>8400 31st St Brookfield, Illinois 6051 3-1 064 708-485-0263</t>
+    <t>8400 31st St Brookfield, Illinois 6051 3-1 064</t>
+  </si>
+  <si>
+    <t>708-485-0263</t>
   </si>
   <si>
     <t>Brookfield Zoo 8400</t>
   </si>
   <si>
-    <t>31st St Brookfield, Illinois 60513-1 064 708-485-2200</t>
+    <t>31st St Brookfield, Illinois 60513-1 064</t>
+  </si>
+  <si>
+    <t>708-485-2200</t>
   </si>
   <si>
     <t>Scales &amp; Tales 1804 5</t>
   </si>
   <si>
-    <t>Racine Ave Chicago, Illinois 60608-3214 312-243-6066</t>
+    <t>Racine Ave Chicago, Illinois 60608-3214</t>
+  </si>
+  <si>
+    <t>312-243-6066</t>
   </si>
   <si>
     <t>Lincoln Park Zoo 2200 N</t>
   </si>
   <si>
-    <t>Cannon Dr Chicago, IL 60614-3862 312-742-2000</t>
+    <t>Cannon Dr Chicago, IL 60614-3862</t>
+  </si>
+  <si>
+    <t>312-742-2000</t>
   </si>
   <si>
     <t>Samantha’s Amazing</t>
   </si>
   <si>
-    <t>Animals 3555 N Milwaukee Ave Chicago, IL 60641-3957 773-549-3357</t>
+    <t>Animals 3555 N Milwaukee Ave Chicago, IL 60641-3957</t>
+  </si>
+  <si>
+    <t>773-549-3357</t>
   </si>
   <si>
     <t>Niabi Zoological</t>
   </si>
   <si>
-    <t>Society 12908 Niabi Zoo Rd Coal Valley, IL 61240-9467 309-799-3482</t>
+    <t>Society 12908 Niabi Zoo Rd Coal Valley, IL 61240-9467</t>
+  </si>
+  <si>
+    <t>309-799-3482</t>
   </si>
   <si>
     <t>Niabi Zoo 13010 Niabi</t>
   </si>
   <si>
-    <t>Zoo Rd Coal Valley, IL 61240-9468 309-799-5107</t>
+    <t>Zoo Rd Coal Valley, IL 61240-9468</t>
+  </si>
+  <si>
+    <t>309-799-5107</t>
   </si>
   <si>
     <t>Friendly Farms Ltd</t>
   </si>
   <si>
-    <t>15534 Somonauk Rd De KaIb, IL 60115-9130 815-756-7773</t>
+    <t>15534 Somonauk Rd De KaIb, IL 60115-9130</t>
+  </si>
+  <si>
+    <t>815-756-7773</t>
   </si>
   <si>
     <t>Scovill Children’s Zoo</t>
   </si>
   <si>
-    <t>71 5 Country Club Rd Decatur, IL 62521-4470 217-421-7435</t>
+    <t>71 5 Country Club Rd Decatur, IL 62521-4470</t>
+  </si>
+  <si>
+    <t>217-421-7435</t>
   </si>
   <si>
     <t>Spotted Acres Inc Route</t>
   </si>
   <si>
-    <t>4 Flora, IL 62839 618-662-4902</t>
+    <t>4 Flora, IL 62839</t>
+  </si>
+  <si>
+    <t>618-662-4902</t>
   </si>
   <si>
     <t>Serpent Safari 6170</t>
   </si>
   <si>
-    <t>Grand Ave #807 Gurnee, IL 60031-4553 847-855-8800</t>
+    <t>Grand Ave #807 Gurnee, IL 60031-4553</t>
+  </si>
+  <si>
+    <t>847-855-8800</t>
   </si>
   <si>
     <t>Peoria Park 2218 N</t>
   </si>
   <si>
-    <t>Prospect Rd Peoria, IL 61603-2193 309-686-3365</t>
+    <t>Prospect Rd Peoria, IL 61603-2193</t>
+  </si>
+  <si>
+    <t>309-686-3365</t>
   </si>
   <si>
     <t>Tnl Exotic Animals Zoo</t>
   </si>
   <si>
-    <t>1643 Yale Bridge Rd South Beloit, IL 61 080-9568 815-389-3640</t>
+    <t>1643 Yale Bridge Rd South Beloit, IL 61 080-9568</t>
+  </si>
+  <si>
+    <t>815-389-3640</t>
   </si>
   <si>
     <t>Springfield Zoological</t>
   </si>
   <si>
-    <t>Society 2405 Westchester Blvd Springfield, IL 62704-5426 217-546-0063</t>
+    <t>Society 2405 Westchester Blvd Springfield, IL 62704-5426</t>
+  </si>
+  <si>
+    <t>217-546-0063</t>
   </si>
   <si>
     <t>Black Pine Animal Park</t>
   </si>
   <si>
-    <t>349 W Albion Rd Albion, Indiana 46701-9785 219-636-7383</t>
+    <t>349 W Albion Rd Albion, Indiana 46701-9785</t>
+  </si>
+  <si>
+    <t>219-636-7383</t>
   </si>
   <si>
     <t>Fort Wayne Children’s</t>
   </si>
   <si>
-    <t>Zoo 3411 Sherman Blvd Fort Wayne, Indiana 46808-1 594 219-427-6800</t>
+    <t>Zoo 3411 Sherman Blvd Fort Wayne, Indiana 46808-1 594</t>
+  </si>
+  <si>
+    <t>219-427-6800</t>
   </si>
   <si>
     <t>Cougar Valley Farms</t>
   </si>
   <si>
-    <t>10471 E Us Highway 24 Idaville, Indiana 47950-8001 219-943-3315</t>
+    <t>10471 E Us Highway 24 Idaville, Indiana 47950-8001</t>
+  </si>
+  <si>
+    <t>219-943-3315</t>
   </si>
   <si>
     <t>Indianapolis Zoo 1200W</t>
   </si>
   <si>
-    <t>Washington St Indianapolis, IN 46222-4500 317-630-2001</t>
+    <t>Washington St Indianapolis, IN 46222-4500</t>
+  </si>
+  <si>
+    <t>317-630-2001</t>
   </si>
   <si>
     <t>Michigan City Zoo Lake</t>
   </si>
   <si>
-    <t>Front Michigan City, IN 46360 219-873-1400</t>
+    <t>Front Michigan City, IN 46360</t>
+  </si>
+  <si>
+    <t>219-873-1400</t>
   </si>
   <si>
     <t>Me’s Zoo Inc 12441 W</t>
   </si>
   <si>
-    <t>300 S Parker City, IN 47368-9350 765-468-8559</t>
+    <t>300 S Parker City, IN 47368-9350</t>
+  </si>
+  <si>
+    <t>765-468-8559</t>
   </si>
   <si>
     <t>Potawatomi Zoological</t>
   </si>
   <si>
-    <t>Society 500 5 Greenlawn Ave South Bend, IN 4661 5-1 341 219-288-4639</t>
+    <t>Society 500 5 Greenlawn Ave South Bend, IN 4661 5-1 341</t>
+  </si>
+  <si>
+    <t>219-288-4639</t>
   </si>
   <si>
     <t>Wilderness Kingdom</t>
   </si>
   <si>
-    <t>23887 125th St Bloomfield, Iowa 52537-6858 641-459-2224</t>
+    <t>23887 125th St Bloomfield, Iowa 52537-6858</t>
+  </si>
+  <si>
+    <t>641-459-2224</t>
   </si>
   <si>
     <t>Perry’s Wilderness</t>
@@ -605,142 +875,214 @@
     <t>Blank Park Zoo 7401 SW</t>
   </si>
   <si>
-    <t>9th St Des Moines, IA 50315-6667 515-285-4722</t>
+    <t>9th St Des Moines, IA 50315-6667</t>
+  </si>
+  <si>
+    <t>515-285-4722</t>
   </si>
   <si>
     <t>Millers Country Zoo</t>
   </si>
   <si>
-    <t>2964 Highway 92 Greenfield, IA 50849-8115 641-743-6345</t>
+    <t>2964 Highway 92 Greenfield, IA 50849-8115</t>
+  </si>
+  <si>
+    <t>641-743-6345</t>
   </si>
   <si>
     <t>Safari Zoological Park</t>
   </si>
   <si>
-    <t>RR 1 Caney, Kansas 67333-9801 316-879-2885</t>
+    <t>RR 1 Caney, Kansas 67333-9801</t>
+  </si>
+  <si>
+    <t>316-879-2885</t>
   </si>
   <si>
     <t>Brit Spaugh Zoo N Main</t>
   </si>
   <si>
-    <t>St Great Bend, Kansas 67530 316-793-4160</t>
+    <t>St Great Bend, Kansas 67530</t>
+  </si>
+  <si>
+    <t>316-793-4160</t>
   </si>
   <si>
     <t>Sunset Zoological Park</t>
   </si>
   <si>
-    <t>2333 Oak Dr Manhattan, Kansas 66502-3824 785-587-2737</t>
+    <t>2333 Oak Dr Manhattan, Kansas 66502-3824</t>
+  </si>
+  <si>
+    <t>785-587-2737</t>
   </si>
   <si>
     <t>Rolling Hills Refuge</t>
   </si>
   <si>
-    <t>625 N Hedville Rd Salina, KS 67401-9764 785-827-9488</t>
+    <t>625 N Hedville Rd Salina, KS 67401-9764</t>
+  </si>
+  <si>
+    <t>785-827-9488</t>
   </si>
   <si>
     <t>Zoo Gage Park 635 SW</t>
   </si>
   <si>
-    <t>Gage Blvd Topeka, KS 66606-2066 785-272-7042</t>
+    <t>Gage Blvd Topeka, KS 66606-2066</t>
+  </si>
+  <si>
+    <t>785-272-7042</t>
   </si>
   <si>
     <t>Sedgwick County Zoo</t>
   </si>
   <si>
-    <t>5555W Zoo Blvd Wichita, KS 67212-1 643 316-942-2212</t>
+    <t>5555W Zoo Blvd Wichita, KS 67212-1 643</t>
+  </si>
+  <si>
+    <t>316-942-2212</t>
   </si>
   <si>
     <t>Greater Baton Rouge Zoo</t>
   </si>
   <si>
-    <t>3601 Thomas Rd Baton Rouge, Louisiana 70807-1 672 225-775-3877</t>
+    <t>3601 Thomas Rd Baton Rouge, Louisiana 70807-1 672</t>
+  </si>
+  <si>
+    <t>225-775-3877</t>
   </si>
   <si>
     <t>Friends Of The Baton</t>
   </si>
   <si>
-    <t>Rouge Zoo 3601 Thomas Rd Baton Rouge, Louisiana 70807-1672 225-778-4009</t>
+    <t>Rouge Zoo 3601 Thomas Rd Baton Rouge, Louisiana 70807-1672</t>
+  </si>
+  <si>
+    <t>225-778-4009</t>
   </si>
   <si>
     <t>Zoo Of Acadiana 116</t>
   </si>
   <si>
-    <t>Lakeview Dr Broussard, Louisiana 7051 8-8004 337-837-4325</t>
+    <t>Lakeview Dr Broussard, Louisiana 7051 8-8004</t>
+  </si>
+  <si>
+    <t>337-837-4325</t>
   </si>
   <si>
     <t>Louisiana Purchase Gdn</t>
   </si>
   <si>
-    <t>&amp; Zoo 1405 Bernstein Park Rd Monroe, LA 71202-5545 318-329-2400</t>
+    <t>&amp; Zoo 1405 Bernstein Park Rd Monroe, LA 71202-5545</t>
+  </si>
+  <si>
+    <t>318-329-2400</t>
   </si>
   <si>
     <t>Zoo-Audubon Park 6500</t>
   </si>
   <si>
-    <t>Magazine St New Orleans, LA 70118-4848 504-861-2537</t>
+    <t>Magazine St New Orleans, LA 70118-4848</t>
+  </si>
+  <si>
+    <t>504-861-2537</t>
   </si>
   <si>
     <t>Ross Park Zoo 185 Park</t>
   </si>
   <si>
-    <t>Ave Binghamton, New York 13903-3643 607-724-5454</t>
-  </si>
-  <si>
-    <t>Society Bronx River Pkwy Bronx, New York 10460 718-367-1010</t>
+    <t>Ave Binghamton, New York 13903-3643</t>
+  </si>
+  <si>
+    <t>607-724-5454</t>
+  </si>
+  <si>
+    <t>Society Bronx River Pkwy Bronx, New York 10460</t>
+  </si>
+  <si>
+    <t>718-367-1010</t>
   </si>
   <si>
     <t>Wildlife Conservation</t>
   </si>
   <si>
-    <t>Society 2300 Southern Blvd Bronx, New York 10460-1090 718-220-5090</t>
+    <t>Society 2300 Southern Blvd Bronx, New York 10460-1090</t>
+  </si>
+  <si>
+    <t>718-220-5090</t>
   </si>
   <si>
     <t>NY Aquarium 602 Surf</t>
   </si>
   <si>
-    <t>Ave Brooklyn, NY 11224-3452 718-265-3400</t>
+    <t>Ave Brooklyn, NY 11224-3452</t>
+  </si>
+  <si>
+    <t>718-265-3400</t>
   </si>
   <si>
     <t>Buffalo Zoological</t>
   </si>
   <si>
-    <t>Gardens 300 Parkside Ave Buffalo, NY 14214-1 999 716-837-3900</t>
+    <t>Gardens 300 Parkside Ave Buffalo, NY 14214-1 999</t>
+  </si>
+  <si>
+    <t>716-837-3900</t>
   </si>
   <si>
     <t>Flag Acres Zoo 4 Rowley</t>
   </si>
   <si>
-    <t>Rd Hoosick Falls, NY 12090-4330 518-686-3159</t>
+    <t>Rd Hoosick Falls, NY 12090-4330</t>
+  </si>
+  <si>
+    <t>518-686-3159</t>
   </si>
   <si>
     <t>Long Island Game Farm</t>
   </si>
   <si>
-    <t>Park Chapman Blvd Manorville, NY 11949 631-878-6644</t>
+    <t>Park Chapman Blvd Manorville, NY 11949</t>
+  </si>
+  <si>
+    <t>631-878-6644</t>
   </si>
   <si>
     <t>Petting Zoo 184 Wading</t>
   </si>
   <si>
-    <t>River Rd #A Manorville, NY 11949-3451 631-878-1785</t>
+    <t>River Rd #A Manorville, NY 11949-3451</t>
+  </si>
+  <si>
+    <t>631-878-1785</t>
   </si>
   <si>
     <t>Thousand Islands Zoo</t>
   </si>
   <si>
-    <t>42240 County Route 21 Redwood, NY 13679-3181 315-628-5821</t>
+    <t>42240 County Route 21 Redwood, NY 13679-3181</t>
+  </si>
+  <si>
+    <t>315-628-5821</t>
   </si>
   <si>
     <t>Seneca Park Zoo 2222</t>
   </si>
   <si>
-    <t>Saint Paul St Rochester, NY 14621-1 097 716-266-6591</t>
+    <t>Saint Paul St Rochester, NY 14621-1 097</t>
+  </si>
+  <si>
+    <t>716-266-6591</t>
   </si>
   <si>
     <t>Utica City Zoo 99</t>
   </si>
   <si>
-    <t>Steele Hill Rd Utica, NY 13501-5017 315-738-0472</t>
+    <t>Steele Hill Rd Utica, NY 13501-5017</t>
+  </si>
+  <si>
+    <t>315-738-0472</t>
   </si>
   <si>
     <t>North Carolina</t>
@@ -752,223 +1094,337 @@
     <t>Jambbas Ranch Tours Inc</t>
   </si>
   <si>
-    <t>RR 2 BOX 326 Fayetteville, North Carolina 28301-9621 910-484-4808</t>
+    <t>RR 2 BOX 326 Fayetteville, North Carolina 28301-9621</t>
+  </si>
+  <si>
+    <t>910-484-4808</t>
   </si>
   <si>
     <t>Lynnwood Park Zoo 1071</t>
   </si>
   <si>
-    <t>Wells Rd Jacksonville, North Carolina 28540-5823 910-938-5848</t>
+    <t>Wells Rd Jacksonville, North Carolina 28540-5823</t>
+  </si>
+  <si>
+    <t>910-938-5848</t>
   </si>
   <si>
     <t>Lazy 5 Ranch 15100</t>
   </si>
   <si>
-    <t>Highway 150 E Mooresville, NC 28115 704-663-5100</t>
+    <t>Highway 150 E Mooresville, NC 28115</t>
+  </si>
+  <si>
+    <t>704-663-5100</t>
   </si>
   <si>
     <t>Charlotte Metro Zoo</t>
   </si>
   <si>
-    <t>4400 Cook Rd Rockwell, NC 28138-7583 704-279-6363</t>
+    <t>4400 Cook Rd Rockwell, NC 28138-7583</t>
+  </si>
+  <si>
+    <t>704-279-6363</t>
   </si>
   <si>
     <t>Zoofauna Route 3 Wake</t>
   </si>
   <si>
-    <t>Forest, NC 27587 919-562-8899</t>
+    <t>Forest, NC 27587</t>
+  </si>
+  <si>
+    <t>919-562-8899</t>
   </si>
   <si>
     <t>Erie Zoological Society</t>
   </si>
   <si>
-    <t>Office 423 W 38th St Erie, Pennsylvania 16508-2701 814-864-4091</t>
+    <t>Office 423 W 38th St Erie, Pennsylvania 16508-2701</t>
+  </si>
+  <si>
+    <t>814-864-4091</t>
   </si>
   <si>
     <t>Erie Zoo Information</t>
   </si>
   <si>
-    <t>423 W 38th St Erie, Pennsylvania 16508-2701 814-864-6272</t>
+    <t>423 W 38th St Erie, Pennsylvania 16508-2701</t>
+  </si>
+  <si>
+    <t>814-864-6272</t>
   </si>
   <si>
     <t>Lake Tobias Wildlife</t>
   </si>
   <si>
-    <t>Park 760 Tobias Dr Halifax, Pennsylvania 17032-9474 717-362-9126</t>
+    <t>Park 760 Tobias Dr Halifax, Pennsylvania 17032-9474</t>
+  </si>
+  <si>
+    <t>717-362-9126</t>
   </si>
   <si>
     <t>Living Treasures Animal</t>
   </si>
   <si>
-    <t>Park Route 711 Jones Mills, PA 15646 724-593-8300</t>
+    <t>Park Route 711 Jones Mills, PA 15646</t>
+  </si>
+  <si>
+    <t>724-593-8300</t>
   </si>
   <si>
     <t>Claws ‘N Paws Wild</t>
   </si>
   <si>
-    <t>Animal Pk Ledgedale Rd Lake Ariel, PA 18436 570-698-6154</t>
-  </si>
-  <si>
-    <t>Park Route 422 New Castle, PA 16101 724-924-9571</t>
+    <t>Animal Pk Ledgedale Rd Lake Ariel, PA 18436</t>
+  </si>
+  <si>
+    <t>570-698-6154</t>
+  </si>
+  <si>
+    <t>Park Route 422 New Castle, PA 16101</t>
+  </si>
+  <si>
+    <t>724-924-9571</t>
   </si>
   <si>
     <t>Elmwood Park Zoo 1661</t>
   </si>
   <si>
-    <t>Harding Blvd Norristown, PA 19401-2974 610-277-3825</t>
+    <t>Harding Blvd Norristown, PA 19401-2974</t>
+  </si>
+  <si>
+    <t>610-277-3825</t>
   </si>
   <si>
     <t>T &amp; D’s Cats Of The</t>
   </si>
   <si>
-    <t>World Penns Creek, PA 17862 570-837-3377</t>
+    <t>World Penns Creek, PA 17862</t>
+  </si>
+  <si>
+    <t>570-837-3377</t>
   </si>
   <si>
     <t>Philadelphia Zoo 3400W</t>
   </si>
   <si>
-    <t>Girard Ave Philadelphia, PA 19104-1139 215-243-1100</t>
+    <t>Girard Ave Philadelphia, PA 19104-1139</t>
+  </si>
+  <si>
+    <t>215-243-1100</t>
   </si>
   <si>
     <t>Zoological Society Of</t>
   </si>
   <si>
-    <t>Phila 3400 W Girard Ave Philadelphia, PA 19104-1196 215-387-6400</t>
+    <t>Phila 3400 W Girard Ave Philadelphia, PA 19104-1196</t>
+  </si>
+  <si>
+    <t>215-387-6400</t>
   </si>
   <si>
     <t>Pittsburgh Zoo 1 Wild</t>
   </si>
   <si>
-    <t>Pl Pittsburgh, PA 15206 412-665-3640</t>
+    <t>Pl Pittsburgh, PA 15206</t>
+  </si>
+  <si>
+    <t>412-665-3640</t>
   </si>
   <si>
     <t>National Aviary Ridge</t>
   </si>
   <si>
-    <t>Ave Pittsburgh, PA 15212 412-323-7234</t>
+    <t>Ave Pittsburgh, PA 15212</t>
+  </si>
+  <si>
+    <t>412-323-7234</t>
   </si>
   <si>
     <t>Mountain View Mini Zoo</t>
   </si>
   <si>
-    <t>Warfordsburg, PA 17267 717-294-6298</t>
+    <t>Warfordsburg, PA 17267</t>
+  </si>
+  <si>
+    <t>717-294-6298</t>
   </si>
   <si>
     <t>Animaland Grand Canyon</t>
   </si>
   <si>
-    <t>Rd Welisboro, PA 16901 570-724-4546</t>
+    <t>Rd Welisboro, PA 16901</t>
+  </si>
+  <si>
+    <t>570-724-4546</t>
   </si>
   <si>
     <t>Amarillo Zoo Adobe Dr</t>
   </si>
   <si>
-    <t>Amarillo, Texas 79111 806-381-7911</t>
+    <t>Amarillo, Texas 79111</t>
+  </si>
+  <si>
+    <t>806-381-7911</t>
   </si>
   <si>
     <t>Austin Zoo 10807</t>
   </si>
   <si>
-    <t>Rawhide Trl Austin, Texas 78736-2716 512-288-1490</t>
+    <t>Rawhide Trl Austin, Texas 78736-2716</t>
+  </si>
+  <si>
+    <t>512-288-1490</t>
   </si>
   <si>
     <t>Bridgeport Nature Ctr</t>
   </si>
   <si>
-    <t>Fm Rd 2123 Bridgeport, Texas 76426 940-683-5034</t>
+    <t>Fm Rd 2123 Bridgeport, Texas 76426</t>
+  </si>
+  <si>
+    <t>940-683-5034</t>
   </si>
   <si>
     <t>Gladys Porter Zoo 500</t>
   </si>
   <si>
-    <t>Ringgold St Brownsville, TX 78520-7998 956-546-2177</t>
+    <t>Ringgold St Brownsville, TX 78520-7998</t>
+  </si>
+  <si>
+    <t>956-546-2177</t>
   </si>
   <si>
     <t>Kitchen Collection Inc</t>
   </si>
   <si>
-    <t>1111 League Line Rd #151 Conroe, TX 77303-1451 936-760-2553</t>
+    <t>1111 League Line Rd #151 Conroe, TX 77303-1451</t>
+  </si>
+  <si>
+    <t>936-760-2553</t>
   </si>
   <si>
     <t>Corpus Christi Zoo</t>
   </si>
   <si>
-    <t>County Rd 33 Corpus Christi, TX 78415 361-814-8000</t>
-  </si>
-  <si>
-    <t>Houston 1513 N Macgregor Dr Houston, TX 77030-1603 713-526-5231</t>
+    <t>County Rd 33 Corpus Christi, TX 78415</t>
+  </si>
+  <si>
+    <t>361-814-8000</t>
+  </si>
+  <si>
+    <t>Houston 1513 N Macgregor Dr Houston, TX 77030-1603</t>
+  </si>
+  <si>
+    <t>713-526-5231</t>
   </si>
   <si>
     <t>Exotic Resort Hc 3 BOX</t>
   </si>
   <si>
-    <t>340 Johnson City, TX 78636-9779 830-868-4357</t>
+    <t>340 Johnson City, TX 78636-9779</t>
+  </si>
+  <si>
+    <t>830-868-4357</t>
   </si>
   <si>
     <t>Llano Estacado Animal</t>
   </si>
   <si>
-    <t>Park P0 Box 68321 Lubbock, TX 79414-832 1 806-766-7852</t>
+    <t>Park P0 Box 68321 Lubbock, TX 79414-832 1</t>
+  </si>
+  <si>
+    <t>806-766-7852</t>
   </si>
   <si>
     <t>Ellen Trout Zoo 402 Zoo</t>
   </si>
   <si>
-    <t>Cir Lufkin, TX 75904-1 345 936-633-0399</t>
+    <t>Cir Lufkin, TX 75904-1 345</t>
+  </si>
+  <si>
+    <t>936-633-0399</t>
   </si>
   <si>
     <t>Tiger Missing Link</t>
   </si>
   <si>
-    <t>Foundation 17544 Fm 14 Tyler, TX 75706-2300 903-858-1008</t>
+    <t>Foundation 17544 Fm 14 Tyler, TX 75706-2300</t>
+  </si>
+  <si>
+    <t>903-858-1008</t>
   </si>
   <si>
     <t>Texas Zoo 110 Memorial</t>
   </si>
   <si>
-    <t>Dr Victoria, TX 77901-6334 361-573-7681</t>
+    <t>Dr Victoria, TX 77901-6334</t>
+  </si>
+  <si>
+    <t>361-573-7681</t>
   </si>
   <si>
     <t>Cameron Park Zoo 1701 N</t>
   </si>
   <si>
-    <t>4th St Waco, TX 76707-2463 254-750-8400</t>
+    <t>4th St Waco, TX 76707-2463</t>
+  </si>
+  <si>
+    <t>254-750-8400</t>
   </si>
   <si>
     <t>Friend Of The Zoo 1254</t>
   </si>
   <si>
-    <t>E 3rd St Chattanooga, Tennessee 37404-2303 423-624-6212</t>
+    <t>E 3rd St Chattanooga, Tennessee 37404-2303</t>
+  </si>
+  <si>
+    <t>423-624-6212</t>
   </si>
   <si>
     <t>Plateau Exotic Bird</t>
   </si>
   <si>
-    <t>Ranch 129 Glenwood Dr Crossville, Tennessee 38558-8610 931-484-7831</t>
+    <t>Ranch 129 Glenwood Dr Crossville, Tennessee 38558-8610</t>
+  </si>
+  <si>
+    <t>931-484-7831</t>
   </si>
   <si>
     <t>Knoxville Zoological</t>
   </si>
   <si>
-    <t>Gardens 3333 Woodbine Ave Knoxville, Tennessee 37914-4448 865-637-5331</t>
+    <t>Gardens 3333 Woodbine Ave Knoxville, Tennessee 37914-4448</t>
+  </si>
+  <si>
+    <t>865-637-5331</t>
   </si>
   <si>
     <t>Memphis Zoo 2000</t>
   </si>
   <si>
-    <t>Galloway Ave Memphis, TN 38112-5033 901-276-9453</t>
+    <t>Galloway Ave Memphis, TN 38112-5033</t>
+  </si>
+  <si>
+    <t>901-276-9453</t>
   </si>
   <si>
     <t>Associates Commercial</t>
   </si>
   <si>
-    <t>Corp 2620 Thousand Oaks Blvd #2440 Memphis, TN 38118-2434 901-542-4320</t>
+    <t>Corp 2620 Thousand Oaks Blvd #2440 Memphis, TN 38118-2434</t>
+  </si>
+  <si>
+    <t>901-542-4320</t>
   </si>
   <si>
     <t>Nashville Zoo At</t>
   </si>
   <si>
-    <t>Grassmere 3777 Nolensville Pike Nashville, TN 37211-3324 615-833-1534</t>
+    <t>Grassmere 3777 Nolensville Pike Nashville, TN 37211-3324</t>
+  </si>
+  <si>
+    <t>615-833-1534</t>
   </si>
   <si>
     <t>Smoky Mountain</t>
@@ -980,19 +1436,28 @@
     <t>Deer Farm Pony Rides</t>
   </si>
   <si>
-    <t>478 Happy Hollow Ln Sevierville, TN 37876-2002 865-428-3337</t>
+    <t>478 Happy Hollow Ln Sevierville, TN 37876-2002</t>
+  </si>
+  <si>
+    <t>865-428-3337</t>
   </si>
   <si>
     <t>Fantasyland Hobby Horse</t>
   </si>
   <si>
-    <t>Farm Bedford, Virginia 24523 540-586-7465</t>
+    <t>Farm Bedford, Virginia 24523</t>
+  </si>
+  <si>
+    <t>540-586-7465</t>
   </si>
   <si>
     <t>Reston Animal Park</t>
   </si>
   <si>
-    <t>19270 James Monroe Hwy Leesburg, Virginia 20175-9047 703-759-3636</t>
+    <t>19270 James Monroe Hwy Leesburg, Virginia 20175-9047</t>
+  </si>
+  <si>
+    <t>703-759-3636</t>
   </si>
   <si>
     <t>Ole Mill Petting Farm</t>
@@ -1004,37 +1469,55 @@
     <t>Virginia Safari Park 68</t>
   </si>
   <si>
-    <t>Woodpecker Ln Natural Bridge, VA 24578 540-291-3205</t>
+    <t>Woodpecker Ln Natural Bridge, VA 24578</t>
+  </si>
+  <si>
+    <t>540-291-3205</t>
   </si>
   <si>
     <t>Zoo At Natural Bridge</t>
   </si>
   <si>
-    <t>RR 1 Natural Bridge, VA 24578-9801 540-291-2420</t>
+    <t>RR 1 Natural Bridge, VA 24578-9801</t>
+  </si>
+  <si>
+    <t>540-291-2420</t>
   </si>
   <si>
     <t>Virginia Zoological</t>
   </si>
   <si>
-    <t>Park 3500 Granby St Norfolk, VA 23504-1 329 757-441-2706</t>
+    <t>Park 3500 Granby St Norfolk, VA 23504-1 329</t>
+  </si>
+  <si>
+    <t>757-441-2706</t>
   </si>
   <si>
     <t>Mill Mountain Zoo PC</t>
   </si>
   <si>
-    <t>Box 13484 Roanoke, VA 24034 540-343-3241</t>
+    <t>Box 13484 Roanoke, VA 24034</t>
+  </si>
+  <si>
+    <t>540-343-3241</t>
   </si>
   <si>
     <t>Thompson Valley Exotic</t>
   </si>
   <si>
-    <t>Animals Route 16 Tazewell, VA 24651 540-988-9599</t>
+    <t>Animals Route 16 Tazewell, VA 24651</t>
+  </si>
+  <si>
+    <t>540-988-9599</t>
   </si>
   <si>
     <t>Washington Serpentarium</t>
   </si>
   <si>
-    <t>119 Croft Ave Gold Bar, Washington 98251 360-793-2000</t>
+    <t>119 Croft Ave Gold Bar, Washington 98251</t>
+  </si>
+  <si>
+    <t>360-793-2000</t>
   </si>
   <si>
     <t>Cougar Mountain</t>
@@ -1046,43 +1529,64 @@
     <t>Cat Tales Zoological</t>
   </si>
   <si>
-    <t>Park 17020 N Newport Hwy Mead, Washington 99021-9539 509-238-4126</t>
+    <t>Park 17020 N Newport Hwy Mead, Washington 99021-9539</t>
+  </si>
+  <si>
+    <t>509-238-4126</t>
   </si>
   <si>
     <t>Woodlawn Park Zoo</t>
   </si>
   <si>
-    <t>Society 601 N 59th St Seattle, WA 98103-5858 206-789-6000</t>
+    <t>Society 601 N 59th St Seattle, WA 98103-5858</t>
+  </si>
+  <si>
+    <t>206-789-6000</t>
   </si>
   <si>
     <t>Woodland Park Zoo 5500</t>
   </si>
   <si>
-    <t>Phinney Ave N Seattle, WA 98103-5865 206-684-4800</t>
+    <t>Phinney Ave N Seattle, WA 98103-5865</t>
+  </si>
+  <si>
+    <t>206-684-4800</t>
   </si>
   <si>
     <t>Olympic Game Farm 1423</t>
   </si>
   <si>
-    <t>Ward Rd Sequim, WA 98382-7838 360-683-4295</t>
+    <t>Ward Rd Sequim, WA 98382-7838</t>
+  </si>
+  <si>
+    <t>360-683-4295</t>
   </si>
   <si>
     <t>Point Defiance Zoo &amp;</t>
   </si>
   <si>
-    <t>Aquarium 5400 N Pearl St Tacoma, WA 98407-3224 253-591-5337</t>
+    <t>Aquarium 5400 N Pearl St Tacoma, WA 98407-3224</t>
+  </si>
+  <si>
+    <t>253-591-5337</t>
   </si>
   <si>
     <t>Jo-Don Farms Inc 5907</t>
   </si>
   <si>
-    <t>Nicholson Rd Franksville, Wisconsin 53126-9334 262-835-2777</t>
+    <t>Nicholson Rd Franksville, Wisconsin 53126-9334</t>
+  </si>
+  <si>
+    <t>262-835-2777</t>
   </si>
   <si>
     <t>Zoo-New 4418</t>
   </si>
   <si>
-    <t>Reforestation Rd Green Bay, Wisconsin 54313-8514 920-448-4466</t>
+    <t>Reforestation Rd Green Bay, Wisconsin 54313-8514</t>
+  </si>
+  <si>
+    <t>920-448-4466</t>
   </si>
   <si>
     <t>Wilderness Walk</t>
@@ -1094,19 +1598,28 @@
     <t>Warbonnet Zoo 5610 Us</t>
   </si>
   <si>
-    <t>Highway 51 Hazelhurst, WI 54531-9746 715-356-5093</t>
+    <t>Highway 51 Hazelhurst, WI 54531-9746</t>
+  </si>
+  <si>
+    <t>715-356-5093</t>
   </si>
   <si>
     <t>Lake Geneva Horse Park</t>
   </si>
   <si>
-    <t>N3010 Hwy 67 Lake Geneva, WI 53147-2627 262-245-0770</t>
+    <t>N3010 Hwy 67 Lake Geneva, WI 53147-2627</t>
+  </si>
+  <si>
+    <t>262-245-0770</t>
   </si>
   <si>
     <t>Zoological Society</t>
   </si>
   <si>
-    <t>Henry Vilas 222 W Washington Ave Madison, WI 53703-2719 608-258-1460</t>
+    <t>Henry Vilas 222 W Washington Ave Madison, WI 53703-2719</t>
+  </si>
+  <si>
+    <t>608-258-1460</t>
   </si>
   <si>
     <t>Zoological</t>
@@ -1124,51 +1637,85 @@
     <t>Pickett Fences Farm Inc</t>
   </si>
   <si>
-    <t>6366 County Rd N Pickett, WI 54964-9533 920-589-3102</t>
+    <t>6366 County Rd N Pickett, WI 54964-9533</t>
+  </si>
+  <si>
+    <t>920-589-3102</t>
   </si>
   <si>
     <t>Vacationland Farm Zoo</t>
   </si>
   <si>
-    <t>200 Orchard Dr Sister Bay, WI 54234-9394 920-854-2525</t>
+    <t>200 Orchard Dr Sister Bay, WI 54234-9394</t>
+  </si>
+  <si>
+    <t>920-854-2525</t>
   </si>
   <si>
     <t>Bear Den Petting Zoo</t>
   </si>
   <si>
-    <t>6831 Big Bend Rd Waterford, WI 53185-1801 262-895-6430</t>
+    <t>6831 Big Bend Rd Waterford, WI 53185-1801</t>
+  </si>
+  <si>
+    <t>262-895-6430</t>
   </si>
   <si>
     <t>J Rs Petting Zoo 1277 W</t>
   </si>
   <si>
-    <t>Fulton St Waupaca, WI 54981-8237 715-258-9808</t>
+    <t>Fulton St Waupaca, WI 54981-8237</t>
+  </si>
+  <si>
+    <t>715-258-9808</t>
   </si>
   <si>
     <t>Animal Haven Farm Zoo N</t>
   </si>
   <si>
-    <t>1720 Buchholz Rd Weyauwega, WI 54983-9557 920-867-3707</t>
+    <t>1720 Buchholz Rd Weyauwega, WI 54983-9557</t>
+  </si>
+  <si>
+    <t>920-867-3707</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1205,8 +1752,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1591,1543 +2140,2084 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36913f33-1aff-422b-807a-422b94c7861f}">
-  <dimension ref="A1:B191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a2112a09-3426-4599-9925-9d847af5e129}">
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="23.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="66.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="62.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="12.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="12.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.75">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75">
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="12.75">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="12.75">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="12.75">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="12.75">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="12.75">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="12.75">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="12.75">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="12.75">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="12.75">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="12.75">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="12.75">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="12.75">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="12.75">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="12.75">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="12.75">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="12.75">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12.75">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="12.75">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12.75">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="12.75">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="12.75">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.75">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="12.75">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12.75">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="12.75">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12.75">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="12.75">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12.75">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="12.75">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="12.75">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="12.75">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="12.75">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="12.75">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12.75">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="12.75">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.75">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="12.75">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="12.75">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="12.75">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12.75">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="12.75">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="12.75">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="12.75">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12.75">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="12.75">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12.75">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A41" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" ht="12.75">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="12.75">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="12.75">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="12.75">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="12.75">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="12.75">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="12.75">
-      <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="12.75">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="12.75">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="12.75">
-      <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="12.75">
+        <v>137</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="12.75">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="12.75">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="12.75">
+        <v>143</v>
+      </c>
+      <c r="C50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="12.75">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="12.75">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="12.75">
+        <v>149</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="12.75">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="12.75">
-      <c r="A55" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="12.75">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="12.75">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="12.75">
-      <c r="A57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="12.75">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A57" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="12.75">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="12.75">
-      <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="12.75">
+        <v>167</v>
+      </c>
+      <c r="C58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="12.75">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="12.75">
-      <c r="A61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="12.75">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12.75">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="12.75">
-      <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="12.75">
+        <v>179</v>
+      </c>
+      <c r="C62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A63" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" ht="12.75">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="B64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="12.75">
-      <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="12.75">
+        <v>184</v>
+      </c>
+      <c r="C64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A65" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="12.75">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="12.75">
-      <c r="A67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="12.75">
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A67" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="12.75">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="12.75">
-      <c r="A69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="12.75">
+        <v>196</v>
+      </c>
+      <c r="C68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" ht="12.75">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="12.75">
-      <c r="A71" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="12.75">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A71" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="12.75">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="12.75">
-      <c r="A73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="12.75">
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A73" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="12.75">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="12.75">
-      <c r="A75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="12.75">
+        <v>213</v>
+      </c>
+      <c r="C74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A75" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="12.75">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="12.75">
-      <c r="A77" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="12.75">
+        <v>219</v>
+      </c>
+      <c r="C76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A77" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="12.75">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="12.75">
-      <c r="A79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="12.75">
+        <v>225</v>
+      </c>
+      <c r="C78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="12.75">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="12.75">
-      <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="12.75">
+        <v>231</v>
+      </c>
+      <c r="C80" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A81" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="12.75">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="12.75">
-      <c r="A83" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="12.75">
+        <v>237</v>
+      </c>
+      <c r="C82" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A83" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="12.75">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="12.75">
-      <c r="A85" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="12.75">
+        <v>243</v>
+      </c>
+      <c r="C84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A85" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="12.75">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="12.75">
-      <c r="A87" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="12.75">
+        <v>249</v>
+      </c>
+      <c r="C86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A87" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="12.75">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="12.75">
-      <c r="A89" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="12.75">
+        <v>255</v>
+      </c>
+      <c r="C88" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A89" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="12.75">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="12.75">
-      <c r="A91" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="12.75">
+        <v>261</v>
+      </c>
+      <c r="C90" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A91" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="12.75">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="12.75">
-      <c r="A93" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="12.75">
+        <v>267</v>
+      </c>
+      <c r="C92" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A93" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="12.75">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="12.75">
-      <c r="A95" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="12.75">
+        <v>273</v>
+      </c>
+      <c r="C94" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A95" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="12.75">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="12.75">
-      <c r="A97" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="12.75">
+        <v>279</v>
+      </c>
+      <c r="C96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A97" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" ht="12.75">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="12.75">
-      <c r="A99" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="12.75">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A99" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="12.75">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="12.75">
-      <c r="A101" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="12.75">
+        <v>289</v>
+      </c>
+      <c r="C100" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A101" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="12.75">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="12.75">
-      <c r="A103" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="12.75">
+        <v>295</v>
+      </c>
+      <c r="C102" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A103" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="12.75">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="B104" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A105" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="12.75">
+      <c r="A106" t="s">
+        <v>306</v>
+      </c>
+      <c r="B106" t="s">
+        <v>307</v>
+      </c>
+      <c r="C106" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A107" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="12.75">
+      <c r="A108" t="s">
+        <v>312</v>
+      </c>
+      <c r="B108" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A109" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="12.75">
+      <c r="A110" t="s">
+        <v>318</v>
+      </c>
+      <c r="B110" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A111" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="12.75">
+      <c r="A112" t="s">
+        <v>324</v>
+      </c>
+      <c r="B112" t="s">
+        <v>325</v>
+      </c>
+      <c r="C112" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A113" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="12.75">
-      <c r="A105" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="12.75">
-      <c r="A106" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="12.75">
-      <c r="A107" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="12.75">
-      <c r="A108" t="s">
-        <v>213</v>
-      </c>
-      <c r="B108" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="12.75">
-      <c r="A109" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="12.75">
-      <c r="A110" t="s">
-        <v>217</v>
-      </c>
-      <c r="B110" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="12.75">
-      <c r="A111" t="s">
-        <v>219</v>
-      </c>
-      <c r="B111" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="12.75">
-      <c r="A112" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="12.75">
-      <c r="A113" t="s">
-        <v>141</v>
-      </c>
-      <c r="B113" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="12.75">
+      <c r="B113" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="12.75">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="12.75">
-      <c r="A115" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="12.75">
+        <v>330</v>
+      </c>
+      <c r="C114" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A115" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="12.75">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>335</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="12.75">
-      <c r="A117" t="s">
-        <v>230</v>
-      </c>
-      <c r="B117" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="12.75">
+        <v>336</v>
+      </c>
+      <c r="C116" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A117" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="12.75">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>341</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="12.75">
-      <c r="A119" t="s">
-        <v>234</v>
-      </c>
-      <c r="B119" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="12.75">
+        <v>342</v>
+      </c>
+      <c r="C118" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A119" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="12.75">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="12.75">
-      <c r="A121" t="s">
-        <v>238</v>
-      </c>
-      <c r="B121" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="12.75">
+        <v>348</v>
+      </c>
+      <c r="C120" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A121" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="12.75">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="12.75">
-      <c r="A123" t="s">
-        <v>242</v>
-      </c>
-      <c r="B123" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="12.75">
+        <v>354</v>
+      </c>
+      <c r="C122" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A123" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" ht="12.75">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="12.75">
-      <c r="A125" t="s">
-        <v>246</v>
-      </c>
-      <c r="B125" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="12.75">
+        <v>359</v>
+      </c>
+      <c r="C124" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A125" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="12.75">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
       <c r="B126" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="12.75">
-      <c r="A127" t="s">
-        <v>250</v>
-      </c>
-      <c r="B127" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="12.75">
+        <v>365</v>
+      </c>
+      <c r="C126" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A127" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="12.75">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="12.75">
-      <c r="A129" t="s">
-        <v>254</v>
-      </c>
-      <c r="B129" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="12.75">
+        <v>371</v>
+      </c>
+      <c r="C128" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A129" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="12.75">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>376</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="12.75">
-      <c r="A131" t="s">
-        <v>258</v>
-      </c>
-      <c r="B131" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="12.75">
+        <v>377</v>
+      </c>
+      <c r="C130" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A131" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="12.75">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="12.75">
-      <c r="A133" t="s">
-        <v>262</v>
-      </c>
-      <c r="B133" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="12.75">
+        <v>383</v>
+      </c>
+      <c r="C132" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A133" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="12.75">
       <c r="A134" t="s">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="12.75">
-      <c r="A135" t="s">
-        <v>265</v>
-      </c>
-      <c r="B135" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="12.75">
+        <v>388</v>
+      </c>
+      <c r="C134" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A135" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="12.75">
       <c r="A136" t="s">
-        <v>267</v>
+        <v>393</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="12.75">
-      <c r="A137" t="s">
-        <v>269</v>
-      </c>
-      <c r="B137" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="12.75">
+        <v>394</v>
+      </c>
+      <c r="C136" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A137" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="12.75">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>399</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="12.75">
-      <c r="A139" t="s">
-        <v>273</v>
-      </c>
-      <c r="B139" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="12.75">
+        <v>400</v>
+      </c>
+      <c r="C138" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A139" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="12.75">
       <c r="A140" t="s">
-        <v>275</v>
+        <v>405</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="12.75">
-      <c r="A141" t="s">
-        <v>277</v>
-      </c>
-      <c r="B141" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="12.75">
+        <v>406</v>
+      </c>
+      <c r="C140" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A141" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="12.75">
       <c r="A142" t="s">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="12.75">
-      <c r="A143" t="s">
-        <v>281</v>
-      </c>
-      <c r="B143" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="12.75">
+        <v>412</v>
+      </c>
+      <c r="C142" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A143" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="12.75">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>417</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="12.75">
-      <c r="A145" t="s">
-        <v>285</v>
-      </c>
-      <c r="B145" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="12.75">
+        <v>418</v>
+      </c>
+      <c r="C144" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A145" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="12.75">
       <c r="A146" t="s">
-        <v>287</v>
+        <v>423</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="12.75">
-      <c r="A147" t="s">
-        <v>289</v>
-      </c>
-      <c r="B147" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="12.75">
+        <v>424</v>
+      </c>
+      <c r="C146" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A147" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="12.75">
       <c r="A148" t="s">
-        <v>291</v>
+        <v>429</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="12.75">
-      <c r="A149" t="s">
-        <v>271</v>
-      </c>
-      <c r="B149" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="12.75">
+        <v>430</v>
+      </c>
+      <c r="C148" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A149" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="12.75">
       <c r="A150" t="s">
-        <v>294</v>
+        <v>434</v>
       </c>
       <c r="B150" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="12.75">
-      <c r="A151" t="s">
-        <v>296</v>
-      </c>
-      <c r="B151" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="12.75">
+        <v>435</v>
+      </c>
+      <c r="C150" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A151" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="12.75">
       <c r="A152" t="s">
-        <v>298</v>
+        <v>440</v>
       </c>
       <c r="B152" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="12.75">
-      <c r="A153" t="s">
-        <v>300</v>
-      </c>
-      <c r="B153" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="12.75">
+        <v>441</v>
+      </c>
+      <c r="C152" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A153" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="12.75">
       <c r="A154" t="s">
-        <v>302</v>
+        <v>446</v>
       </c>
       <c r="B154" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="12.75">
-      <c r="A155" t="s">
-        <v>304</v>
-      </c>
-      <c r="B155" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="12.75">
+        <v>447</v>
+      </c>
+      <c r="C154" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A155" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="12.75">
       <c r="A156" t="s">
-        <v>306</v>
+        <v>452</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="12.75">
-      <c r="A157" t="s">
-        <v>308</v>
-      </c>
-      <c r="B157" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="12.75">
+        <v>453</v>
+      </c>
+      <c r="C156" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A157" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="12.75">
       <c r="A158" t="s">
-        <v>310</v>
+        <v>458</v>
       </c>
       <c r="B158" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="12.75">
-      <c r="A159" t="s">
-        <v>312</v>
-      </c>
-      <c r="B159" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="12.75">
+        <v>459</v>
+      </c>
+      <c r="C158" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A159" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="12.75">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>464</v>
       </c>
       <c r="B160" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="12.75">
-      <c r="A161" t="s">
-        <v>316</v>
-      </c>
-      <c r="B161" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="12.75">
+        <v>465</v>
+      </c>
+      <c r="C160" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A161" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="12.75">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>470</v>
       </c>
       <c r="B162" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="12.75">
-      <c r="A163" t="s">
-        <v>320</v>
-      </c>
-      <c r="B163" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="12.75">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A163" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="12.75">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>475</v>
       </c>
       <c r="B164" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="12.75">
-      <c r="A165" t="s">
-        <v>324</v>
-      </c>
-      <c r="B165" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="12.75">
+        <v>476</v>
+      </c>
+      <c r="C164" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A165" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="12.75">
       <c r="A166" t="s">
-        <v>326</v>
+        <v>481</v>
       </c>
       <c r="B166" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="12.75">
-      <c r="A167" t="s">
-        <v>328</v>
-      </c>
-      <c r="B167" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="12.75">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A167" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="12.75">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>486</v>
       </c>
       <c r="B168" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="12.75">
-      <c r="A169" t="s">
-        <v>332</v>
-      </c>
-      <c r="B169" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="12.75">
+        <v>487</v>
+      </c>
+      <c r="C168" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A169" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="12.75">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>492</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="12.75">
-      <c r="A171" t="s">
-        <v>336</v>
-      </c>
-      <c r="B171" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="12.75">
+        <v>493</v>
+      </c>
+      <c r="C170" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A171" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="12.75">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>498</v>
       </c>
       <c r="B172" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="12.75">
-      <c r="A173" t="s">
-        <v>340</v>
-      </c>
-      <c r="B173" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="12.75">
+        <v>499</v>
+      </c>
+      <c r="C172" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A173" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="1:3" ht="12.75">
       <c r="A174" t="s">
-        <v>342</v>
+        <v>503</v>
       </c>
       <c r="B174" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="12.75">
-      <c r="A175" t="s">
-        <v>344</v>
-      </c>
-      <c r="B175" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="12.75">
+        <v>504</v>
+      </c>
+      <c r="C174" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A175" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="12.75">
       <c r="A176" t="s">
-        <v>346</v>
+        <v>509</v>
       </c>
       <c r="B176" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="12.75">
-      <c r="A177" t="s">
-        <v>348</v>
-      </c>
-      <c r="B177" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="12.75">
+        <v>510</v>
+      </c>
+      <c r="C176" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A177" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="12.75">
       <c r="A178" t="s">
-        <v>350</v>
+        <v>515</v>
       </c>
       <c r="B178" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="12.75">
-      <c r="A179" t="s">
-        <v>352</v>
-      </c>
-      <c r="B179" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="12.75">
+        <v>516</v>
+      </c>
+      <c r="C178" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A179" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="12.75">
       <c r="A180" t="s">
-        <v>354</v>
+        <v>521</v>
       </c>
       <c r="B180" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="12.75">
-      <c r="A181" t="s">
-        <v>356</v>
-      </c>
-      <c r="B181" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="12.75">
+        <v>522</v>
+      </c>
+      <c r="C180" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A181" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="1:3" ht="12.75">
       <c r="A182" t="s">
-        <v>358</v>
+        <v>526</v>
       </c>
       <c r="B182" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="12.75">
-      <c r="A183" t="s">
-        <v>360</v>
-      </c>
-      <c r="B183" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="12.75">
+        <v>527</v>
+      </c>
+      <c r="C182" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A183" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="12.75">
       <c r="A184" t="s">
-        <v>362</v>
+        <v>532</v>
       </c>
       <c r="B184" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="12.75">
-      <c r="A185" t="s">
-        <v>364</v>
-      </c>
-      <c r="B185" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="12.75">
+        <v>533</v>
+      </c>
+      <c r="C184" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A185" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="1:3" ht="12.75">
       <c r="A186" t="s">
-        <v>366</v>
+        <v>537</v>
       </c>
       <c r="B186" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="12.75">
-      <c r="A187" t="s">
-        <v>368</v>
-      </c>
-      <c r="B187" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="12.75">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A187" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="12.75">
       <c r="A188" t="s">
-        <v>370</v>
+        <v>542</v>
       </c>
       <c r="B188" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="12.75">
-      <c r="A189" t="s">
-        <v>372</v>
-      </c>
-      <c r="B189" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="12.75">
+        <v>543</v>
+      </c>
+      <c r="C188" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A189" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="12.75">
       <c r="A190" t="s">
-        <v>374</v>
+        <v>548</v>
       </c>
       <c r="B190" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="12.75">
-      <c r="A191" t="s">
-        <v>376</v>
-      </c>
-      <c r="B191" t="s">
-        <v>377</v>
+        <v>549</v>
+      </c>
+      <c r="C190" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="2" customFormat="1" ht="12.75">
+      <c r="A191" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/47.zooguideusa/extracted_data/47.Data.xlsx
+++ b/47.zooguideusa/extracted_data/47.Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="554">
   <si>
     <t>name</t>
   </si>
@@ -26,10 +26,10 @@
     <t>phone</t>
   </si>
   <si>
-    <t>Kids Country Farm 15746</t>
-  </si>
-  <si>
-    <t>Beasley Rd Foley, Alabama 36535-8558</t>
+    <t>Kids Country Farm</t>
+  </si>
+  <si>
+    <t>15746 Beasley Rd Foley, Alabama 36535-8558</t>
   </si>
   <si>
     <t>334-965-7451</t>
@@ -125,10 +125,10 @@
     <t>520-474-5435</t>
   </si>
   <si>
-    <t>Heritage Park Zoo 1403</t>
-  </si>
-  <si>
-    <t>Heritage Park Rd Prescott, AZ 86301-6001</t>
+    <t>Heritage Park Zoo</t>
+  </si>
+  <si>
+    <t>1403 Heritage Park Rd Prescott, AZ 86301-6001</t>
   </si>
   <si>
     <t>520-778-4242</t>
@@ -152,46 +152,46 @@
     <t>520-881-1078</t>
   </si>
   <si>
-    <t>Puffs Zoo 1215 E Main</t>
-  </si>
-  <si>
-    <t>St Batesville, Arkansas 72501-3018</t>
+    <t>Puffs Zoo</t>
+  </si>
+  <si>
+    <t>1215 E Main St Batesville, Arkansas 72501-3018</t>
   </si>
   <si>
     <t>870-698-0711</t>
   </si>
   <si>
-    <t>Rainforest 257 Scenic</t>
-  </si>
-  <si>
-    <t>Hill Rd Conway, Arkansas 72032-8605</t>
+    <t>Rainforest</t>
+  </si>
+  <si>
+    <t>257 Scenic Hill Rd Conway, Arkansas 72032-8605</t>
   </si>
   <si>
     <t>501-470-0999</t>
   </si>
   <si>
-    <t>Crossett City Zoo 1141</t>
-  </si>
-  <si>
-    <t>Parkway Dr Crossett, Arkansas 71635-3819</t>
+    <t>Crossett City Zoo</t>
+  </si>
+  <si>
+    <t>1141 Parkway Dr Crossett, Arkansas 71635-3819</t>
   </si>
   <si>
     <t>870-364-7732</t>
   </si>
   <si>
-    <t>Animal Actors Zoo 380</t>
-  </si>
-  <si>
-    <t>Whittington Ave Hot Springs, AR 71901-3402</t>
+    <t>Animal Actors Zoo</t>
+  </si>
+  <si>
+    <t>380 Whittington Ave Hot Springs, AR 71901-3402</t>
   </si>
   <si>
     <t>501-623-9695</t>
   </si>
   <si>
-    <t>Kidz N More 301 Spriggs</t>
-  </si>
-  <si>
-    <t>Rd N Little Rock, AR 72118-2331</t>
+    <t>Kidz N More</t>
+  </si>
+  <si>
+    <t>301 Spriggs Rd N Little Rock, AR 72118-2331</t>
   </si>
   <si>
     <t>501-758-0041</t>
@@ -206,10 +206,10 @@
     <t>501-663-4733</t>
   </si>
   <si>
-    <t>Little Rock Zoo 700</t>
-  </si>
-  <si>
-    <t>Jonesboro Dr Little Rock, AR 72205-5404</t>
+    <t>Little Rock Zoo</t>
+  </si>
+  <si>
+    <t>700 Jonesboro Dr Little Rock, AR 72205-5404</t>
   </si>
   <si>
     <t>501-666-2406</t>
@@ -221,6 +221,9 @@
     <t>Museum-Calm 10500 Alfred Harrell Hwy Bakersfield, California 93306-9654</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Friends Of Moonridge</t>
   </si>
   <si>
@@ -263,10 +266,10 @@
     <t>209-368-8992</t>
   </si>
   <si>
-    <t>Micke Grove Zoo 11793 N</t>
-  </si>
-  <si>
-    <t>Micke Grove Rd Lodi, CA 95240-9426</t>
+    <t>Micke Grove Zoo</t>
+  </si>
+  <si>
+    <t>11793 N Micke Grove Rd Lodi, CA 95240-9426</t>
   </si>
   <si>
     <t>209-953-8840</t>
@@ -281,10 +284,10 @@
     <t>805-378-1441</t>
   </si>
   <si>
-    <t>Oakland Zoo 9777 Golf</t>
-  </si>
-  <si>
-    <t>Links Rd Oakland, CA 94605-4925</t>
+    <t>Oakland Zoo</t>
+  </si>
+  <si>
+    <t>9777 Golf Links Rd Oakland, CA 94605-4925</t>
   </si>
   <si>
     <t>510-632-9523</t>
@@ -302,10 +305,10 @@
     <t>4557 Mills Cir Ontario, CA 91764-5220</t>
   </si>
   <si>
-    <t>Living Desert 47900</t>
-  </si>
-  <si>
-    <t>Portola Ave Palm Desert, CA 92260-6156</t>
+    <t>Living Desert</t>
+  </si>
+  <si>
+    <t>47900 Portola Ave Palm Desert, CA 92260-6156</t>
   </si>
   <si>
     <t>760-346-5694</t>
@@ -320,28 +323,28 @@
     <t>619-234-3153</t>
   </si>
   <si>
-    <t>Zoological Society 2920</t>
-  </si>
-  <si>
-    <t>Zoo Dr San Diego, CA 92101-1646</t>
+    <t>Zoological Society</t>
+  </si>
+  <si>
+    <t>2920 Zoo Dr San Diego, CA 92101-1646</t>
   </si>
   <si>
     <t>619-685-3291</t>
   </si>
   <si>
-    <t>San Francisco Zoo 1 Zoo</t>
-  </si>
-  <si>
-    <t>Rd San Francisco, CA 941 32-1 098</t>
+    <t>San Francisco Zoo</t>
+  </si>
+  <si>
+    <t>1 Zoo Rd San Francisco, CA 941 32-1 098</t>
   </si>
   <si>
     <t>415-753-7072</t>
   </si>
   <si>
-    <t>Santa Ana Zoo 1801 E</t>
-  </si>
-  <si>
-    <t>Chestnut Ave Santa Ana, CA 92701-5001</t>
+    <t>Santa Ana Zoo</t>
+  </si>
+  <si>
+    <t>1801 E Chestnut Ave Santa Ana, CA 92701-5001</t>
   </si>
   <si>
     <t>714-835-7484</t>
@@ -398,19 +401,19 @@
     <t>970-264-5546</t>
   </si>
   <si>
-    <t>Pueblo Zoo 3455</t>
-  </si>
-  <si>
-    <t>Nuckolls Ave Pueblo, CO 81005-1 234</t>
+    <t>Pueblo Zoo</t>
+  </si>
+  <si>
+    <t>3455 Nuckolls Ave Pueblo, CO 81005-1 234</t>
   </si>
   <si>
     <t>719-561-9664</t>
   </si>
   <si>
-    <t>Genesis Zoology Ctr 747</t>
-  </si>
-  <si>
-    <t>Howard Rd Auburndale, Florida 33823-9683</t>
+    <t>Genesis Zoology Ctr</t>
+  </si>
+  <si>
+    <t>747 Howard Rd Auburndale, Florida 33823-9683</t>
   </si>
   <si>
     <t>863-965-8706</t>
@@ -461,19 +464,19 @@
     <t>954-581-3817</t>
   </si>
   <si>
-    <t>Kountry Kritters 639</t>
-  </si>
-  <si>
-    <t>Rio Ranchero Rd De Funiak Spgs, FL 32433-6993</t>
+    <t>Kountry Kritters</t>
+  </si>
+  <si>
+    <t>639 Rio Ranchero Rd De Funiak Spgs, FL 32433-6993</t>
   </si>
   <si>
     <t>850-951-0913</t>
   </si>
   <si>
-    <t>Little Farm 13401 SW</t>
-  </si>
-  <si>
-    <t>224th St Goulds, FL 33170-4311</t>
+    <t>Little Farm</t>
+  </si>
+  <si>
+    <t>13401 SW 224th St Goulds, FL 33170-4311</t>
   </si>
   <si>
     <t>305-258-3186</t>
@@ -497,19 +500,19 @@
     <t>904-757-4462</t>
   </si>
   <si>
-    <t>Party Animals 1439</t>
-  </si>
-  <si>
-    <t>Simmons Rd Kissimmee, FL 34744-5631</t>
+    <t>Party Animals</t>
+  </si>
+  <si>
+    <t>1439 Simmons Rd Kissimmee, FL 34744-5631</t>
   </si>
   <si>
     <t>407-414-1981</t>
   </si>
   <si>
-    <t>Jungleland 4580W Irlo</t>
-  </si>
-  <si>
-    <t>Bronson MemI Hwy Kissimmee, FL 34746-5304</t>
+    <t>Jungleland</t>
+  </si>
+  <si>
+    <t>4580W Irlo Bronson MemI Hwy Kissimmee, FL 34746-5304</t>
   </si>
   <si>
     <t>407-396-1012</t>
@@ -533,28 +536,28 @@
     <t>941-262-5409</t>
   </si>
   <si>
-    <t>Bird Gardens 1060</t>
-  </si>
-  <si>
-    <t>Purple Martin Dr Naples, FL 34120-4868</t>
+    <t>Bird Gardens</t>
+  </si>
+  <si>
+    <t>1060 Purple Martin Dr Naples, FL 34120-4868</t>
   </si>
   <si>
     <t>941-348-8880</t>
   </si>
   <si>
-    <t>Chimp Farm Inc 4612 Alt</t>
-  </si>
-  <si>
-    <t>19 Palm Harbor, FL 34683-1 437</t>
+    <t>Chimp Farm Inc</t>
+  </si>
+  <si>
+    <t>4612 Alt 19 Palm Harbor, FL 34683-1 437</t>
   </si>
   <si>
     <t>727-943-5897</t>
   </si>
   <si>
-    <t>Zoo World 9008 Front</t>
-  </si>
-  <si>
-    <t>Beach Rd Panama City Bch, FL 32407-4212</t>
+    <t>Zoo World</t>
+  </si>
+  <si>
+    <t>9008 Front Beach Rd Panama City Bch, FL 32407-4212</t>
   </si>
   <si>
     <t>850-230-1243</t>
@@ -602,10 +605,10 @@
     <t>813-920-4130</t>
   </si>
   <si>
-    <t>Palm Beach Zoo 1301</t>
-  </si>
-  <si>
-    <t>Summit Blvd West Palm Beach, FL 33405-3035</t>
+    <t>Palm Beach Zoo</t>
+  </si>
+  <si>
+    <t>1301 Summit Blvd West Palm Beach, FL 33405-3035</t>
   </si>
   <si>
     <t>561-547-9453</t>
@@ -644,19 +647,19 @@
     <t>912-884-5006</t>
   </si>
   <si>
-    <t>Critters-To-Go 110</t>
-  </si>
-  <si>
-    <t>Brandy Rd Savannah, GA 31419-9562</t>
+    <t>Critters-To-Go</t>
+  </si>
+  <si>
+    <t>110 Brandy Rd Savannah, GA 31419-9562</t>
   </si>
   <si>
     <t>912-961-1240</t>
   </si>
   <si>
-    <t>Wild Adventures 3766</t>
-  </si>
-  <si>
-    <t>Old Clyattville Rd Valdosta, GA 31601-1704</t>
+    <t>Wild Adventures</t>
+  </si>
+  <si>
+    <t>3766 Old Clyattville Rd Valdosta, GA 31601-1704</t>
   </si>
   <si>
     <t>912-559-1330</t>
@@ -671,28 +674,28 @@
     <t>708-485-0263</t>
   </si>
   <si>
-    <t>Brookfield Zoo 8400</t>
-  </si>
-  <si>
-    <t>31st St Brookfield, Illinois 60513-1 064</t>
+    <t>Brookfield Zoo</t>
+  </si>
+  <si>
+    <t>8400 31st St Brookfield, Illinois 60513-1 064</t>
   </si>
   <si>
     <t>708-485-2200</t>
   </si>
   <si>
-    <t>Scales &amp; Tales 1804 5</t>
-  </si>
-  <si>
-    <t>Racine Ave Chicago, Illinois 60608-3214</t>
+    <t>Scales &amp; Tales</t>
+  </si>
+  <si>
+    <t>1804 5 Racine Ave Chicago, Illinois 60608-3214</t>
   </si>
   <si>
     <t>312-243-6066</t>
   </si>
   <si>
-    <t>Lincoln Park Zoo 2200 N</t>
-  </si>
-  <si>
-    <t>Cannon Dr Chicago, IL 60614-3862</t>
+    <t>Lincoln Park Zoo</t>
+  </si>
+  <si>
+    <t>2200 N Cannon Dr Chicago, IL 60614-3862</t>
   </si>
   <si>
     <t>312-742-2000</t>
@@ -716,10 +719,10 @@
     <t>309-799-3482</t>
   </si>
   <si>
-    <t>Niabi Zoo 13010 Niabi</t>
-  </si>
-  <si>
-    <t>Zoo Rd Coal Valley, IL 61240-9468</t>
+    <t>Niabi Zoo</t>
+  </si>
+  <si>
+    <t>13010 Niabi Zoo Rd Coal Valley, IL 61240-9468</t>
   </si>
   <si>
     <t>309-799-5107</t>
@@ -752,19 +755,19 @@
     <t>618-662-4902</t>
   </si>
   <si>
-    <t>Serpent Safari 6170</t>
-  </si>
-  <si>
-    <t>Grand Ave #807 Gurnee, IL 60031-4553</t>
+    <t>Serpent Safari</t>
+  </si>
+  <si>
+    <t>6170 Grand Ave #807 Gurnee, IL 60031-4553</t>
   </si>
   <si>
     <t>847-855-8800</t>
   </si>
   <si>
-    <t>Peoria Park 2218 N</t>
-  </si>
-  <si>
-    <t>Prospect Rd Peoria, IL 61603-2193</t>
+    <t>Peoria Park</t>
+  </si>
+  <si>
+    <t>2218 N Prospect Rd Peoria, IL 61603-2193</t>
   </si>
   <si>
     <t>309-686-3365</t>
@@ -815,10 +818,10 @@
     <t>219-943-3315</t>
   </si>
   <si>
-    <t>Indianapolis Zoo 1200W</t>
-  </si>
-  <si>
-    <t>Washington St Indianapolis, IN 46222-4500</t>
+    <t>Indianapolis Zoo</t>
+  </si>
+  <si>
+    <t>1200W Washington St Indianapolis, IN 46222-4500</t>
   </si>
   <si>
     <t>317-630-2001</t>
@@ -833,10 +836,10 @@
     <t>219-873-1400</t>
   </si>
   <si>
-    <t>Me’s Zoo Inc 12441 W</t>
-  </si>
-  <si>
-    <t>300 S Parker City, IN 47368-9350</t>
+    <t>Me’s Zoo Inc</t>
+  </si>
+  <si>
+    <t>12441 W 300 S Parker City, IN 47368-9350</t>
   </si>
   <si>
     <t>765-468-8559</t>
@@ -872,10 +875,10 @@
     <t>Development Ofc 550 39th St#301C Des Moines, Iowa 50312-3529</t>
   </si>
   <si>
-    <t>Blank Park Zoo 7401 SW</t>
-  </si>
-  <si>
-    <t>9th St Des Moines, IA 50315-6667</t>
+    <t>Blank Park Zoo</t>
+  </si>
+  <si>
+    <t>7401 SW 9th St Des Moines, IA 50315-6667</t>
   </si>
   <si>
     <t>515-285-4722</t>
@@ -926,10 +929,10 @@
     <t>785-827-9488</t>
   </si>
   <si>
-    <t>Zoo Gage Park 635 SW</t>
-  </si>
-  <si>
-    <t>Gage Blvd Topeka, KS 66606-2066</t>
+    <t>Zoo Gage Park</t>
+  </si>
+  <si>
+    <t>635 SW Gage Blvd Topeka, KS 66606-2066</t>
   </si>
   <si>
     <t>785-272-7042</t>
@@ -962,10 +965,10 @@
     <t>225-778-4009</t>
   </si>
   <si>
-    <t>Zoo Of Acadiana 116</t>
-  </si>
-  <si>
-    <t>Lakeview Dr Broussard, Louisiana 7051 8-8004</t>
+    <t>Zoo Of Acadiana</t>
+  </si>
+  <si>
+    <t>116 Lakeview Dr Broussard, Louisiana 7051 8-8004</t>
   </si>
   <si>
     <t>337-837-4325</t>
@@ -980,19 +983,19 @@
     <t>318-329-2400</t>
   </si>
   <si>
-    <t>Zoo-Audubon Park 6500</t>
-  </si>
-  <si>
-    <t>Magazine St New Orleans, LA 70118-4848</t>
+    <t>Zoo-Audubon Park</t>
+  </si>
+  <si>
+    <t>6500 Magazine St New Orleans, LA 70118-4848</t>
   </si>
   <si>
     <t>504-861-2537</t>
   </si>
   <si>
-    <t>Ross Park Zoo 185 Park</t>
-  </si>
-  <si>
-    <t>Ave Binghamton, New York 13903-3643</t>
+    <t>Ross Park Zoo</t>
+  </si>
+  <si>
+    <t>185 Park Ave Binghamton, New York 13903-3643</t>
   </si>
   <si>
     <t>607-724-5454</t>
@@ -1013,10 +1016,10 @@
     <t>718-220-5090</t>
   </si>
   <si>
-    <t>NY Aquarium 602 Surf</t>
-  </si>
-  <si>
-    <t>Ave Brooklyn, NY 11224-3452</t>
+    <t>NY Aquarium</t>
+  </si>
+  <si>
+    <t>602 Surf Ave Brooklyn, NY 11224-3452</t>
   </si>
   <si>
     <t>718-265-3400</t>
@@ -1031,10 +1034,10 @@
     <t>716-837-3900</t>
   </si>
   <si>
-    <t>Flag Acres Zoo 4 Rowley</t>
-  </si>
-  <si>
-    <t>Rd Hoosick Falls, NY 12090-4330</t>
+    <t>Flag Acres Zoo</t>
+  </si>
+  <si>
+    <t>4 Rowley Rd Hoosick Falls, NY 12090-4330</t>
   </si>
   <si>
     <t>518-686-3159</t>
@@ -1049,10 +1052,10 @@
     <t>631-878-6644</t>
   </si>
   <si>
-    <t>Petting Zoo 184 Wading</t>
-  </si>
-  <si>
-    <t>River Rd #A Manorville, NY 11949-3451</t>
+    <t>Petting Zoo</t>
+  </si>
+  <si>
+    <t>184 Wading River Rd #A Manorville, NY 11949-3451</t>
   </si>
   <si>
     <t>631-878-1785</t>
@@ -1067,19 +1070,19 @@
     <t>315-628-5821</t>
   </si>
   <si>
-    <t>Seneca Park Zoo 2222</t>
-  </si>
-  <si>
-    <t>Saint Paul St Rochester, NY 14621-1 097</t>
+    <t>Seneca Park Zoo</t>
+  </si>
+  <si>
+    <t>2222 Saint Paul St Rochester, NY 14621-1 097</t>
   </si>
   <si>
     <t>716-266-6591</t>
   </si>
   <si>
-    <t>Utica City Zoo 99</t>
-  </si>
-  <si>
-    <t>Steele Hill Rd Utica, NY 13501-5017</t>
+    <t>Utica City Zoo</t>
+  </si>
+  <si>
+    <t>99 Steele Hill Rd Utica, NY 13501-5017</t>
   </si>
   <si>
     <t>315-738-0472</t>
@@ -1100,19 +1103,19 @@
     <t>910-484-4808</t>
   </si>
   <si>
-    <t>Lynnwood Park Zoo 1071</t>
-  </si>
-  <si>
-    <t>Wells Rd Jacksonville, North Carolina 28540-5823</t>
+    <t>Lynnwood Park Zoo</t>
+  </si>
+  <si>
+    <t>1071 Wells Rd Jacksonville, North Carolina 28540-5823</t>
   </si>
   <si>
     <t>910-938-5848</t>
   </si>
   <si>
-    <t>Lazy 5 Ranch 15100</t>
-  </si>
-  <si>
-    <t>Highway 150 E Mooresville, NC 28115</t>
+    <t>Lazy</t>
+  </si>
+  <si>
+    <t>5 Ranch 15100 Highway 150 E Mooresville, NC 28115</t>
   </si>
   <si>
     <t>704-663-5100</t>
@@ -1127,10 +1130,10 @@
     <t>704-279-6363</t>
   </si>
   <si>
-    <t>Zoofauna Route 3 Wake</t>
-  </si>
-  <si>
-    <t>Forest, NC 27587</t>
+    <t>Zoofauna Route</t>
+  </si>
+  <si>
+    <t>3 Wake Forest, NC 27587</t>
   </si>
   <si>
     <t>919-562-8899</t>
@@ -1187,10 +1190,10 @@
     <t>724-924-9571</t>
   </si>
   <si>
-    <t>Elmwood Park Zoo 1661</t>
-  </si>
-  <si>
-    <t>Harding Blvd Norristown, PA 19401-2974</t>
+    <t>Elmwood Park Zoo</t>
+  </si>
+  <si>
+    <t>1661 Harding Blvd Norristown, PA 19401-2974</t>
   </si>
   <si>
     <t>610-277-3825</t>
@@ -1205,10 +1208,10 @@
     <t>570-837-3377</t>
   </si>
   <si>
-    <t>Philadelphia Zoo 3400W</t>
-  </si>
-  <si>
-    <t>Girard Ave Philadelphia, PA 19104-1139</t>
+    <t>Philadelphia Zoo</t>
+  </si>
+  <si>
+    <t>3400W Girard Ave Philadelphia, PA 19104-1139</t>
   </si>
   <si>
     <t>215-243-1100</t>
@@ -1223,10 +1226,10 @@
     <t>215-387-6400</t>
   </si>
   <si>
-    <t>Pittsburgh Zoo 1 Wild</t>
-  </si>
-  <si>
-    <t>Pl Pittsburgh, PA 15206</t>
+    <t>Pittsburgh Zoo</t>
+  </si>
+  <si>
+    <t>1 Wild Pl Pittsburgh, PA 15206</t>
   </si>
   <si>
     <t>412-665-3640</t>
@@ -1268,10 +1271,10 @@
     <t>806-381-7911</t>
   </si>
   <si>
-    <t>Austin Zoo 10807</t>
-  </si>
-  <si>
-    <t>Rawhide Trl Austin, Texas 78736-2716</t>
+    <t>Austin Zoo</t>
+  </si>
+  <si>
+    <t>10807 Rawhide Trl Austin, Texas 78736-2716</t>
   </si>
   <si>
     <t>512-288-1490</t>
@@ -1286,10 +1289,10 @@
     <t>940-683-5034</t>
   </si>
   <si>
-    <t>Gladys Porter Zoo 500</t>
-  </si>
-  <si>
-    <t>Ringgold St Brownsville, TX 78520-7998</t>
+    <t>Gladys Porter Zoo</t>
+  </si>
+  <si>
+    <t>500 Ringgold St Brownsville, TX 78520-7998</t>
   </si>
   <si>
     <t>956-546-2177</t>
@@ -1319,10 +1322,10 @@
     <t>713-526-5231</t>
   </si>
   <si>
-    <t>Exotic Resort Hc 3 BOX</t>
-  </si>
-  <si>
-    <t>340 Johnson City, TX 78636-9779</t>
+    <t>Exotic Resort Hc</t>
+  </si>
+  <si>
+    <t>3 BOX 340 Johnson City, TX 78636-9779</t>
   </si>
   <si>
     <t>830-868-4357</t>
@@ -1337,10 +1340,10 @@
     <t>806-766-7852</t>
   </si>
   <si>
-    <t>Ellen Trout Zoo 402 Zoo</t>
-  </si>
-  <si>
-    <t>Cir Lufkin, TX 75904-1 345</t>
+    <t>Ellen Trout Zoo</t>
+  </si>
+  <si>
+    <t>402 Zoo Cir Lufkin, TX 75904-1 345</t>
   </si>
   <si>
     <t>936-633-0399</t>
@@ -1355,28 +1358,28 @@
     <t>903-858-1008</t>
   </si>
   <si>
-    <t>Texas Zoo 110 Memorial</t>
-  </si>
-  <si>
-    <t>Dr Victoria, TX 77901-6334</t>
+    <t>Texas Zoo</t>
+  </si>
+  <si>
+    <t>110 Memorial Dr Victoria, TX 77901-6334</t>
   </si>
   <si>
     <t>361-573-7681</t>
   </si>
   <si>
-    <t>Cameron Park Zoo 1701 N</t>
-  </si>
-  <si>
-    <t>4th St Waco, TX 76707-2463</t>
+    <t>Cameron Park Zoo</t>
+  </si>
+  <si>
+    <t>1701 N 4th St Waco, TX 76707-2463</t>
   </si>
   <si>
     <t>254-750-8400</t>
   </si>
   <si>
-    <t>Friend Of The Zoo 1254</t>
-  </si>
-  <si>
-    <t>E 3rd St Chattanooga, Tennessee 37404-2303</t>
+    <t>Friend Of The Zoo</t>
+  </si>
+  <si>
+    <t>1254 E 3rd St Chattanooga, Tennessee 37404-2303</t>
   </si>
   <si>
     <t>423-624-6212</t>
@@ -1400,10 +1403,10 @@
     <t>865-637-5331</t>
   </si>
   <si>
-    <t>Memphis Zoo 2000</t>
-  </si>
-  <si>
-    <t>Galloway Ave Memphis, TN 38112-5033</t>
+    <t>Memphis Zoo</t>
+  </si>
+  <si>
+    <t>2000 Galloway Ave Memphis, TN 38112-5033</t>
   </si>
   <si>
     <t>901-276-9453</t>
@@ -1466,10 +1469,10 @@
     <t>1358 Arnolds Valley Rd Natural Brdg Sta, Virginia 24579-3048</t>
   </si>
   <si>
-    <t>Virginia Safari Park 68</t>
-  </si>
-  <si>
-    <t>Woodpecker Ln Natural Bridge, VA 24578</t>
+    <t>Virginia Safari Park</t>
+  </si>
+  <si>
+    <t>68 Woodpecker Ln Natural Bridge, VA 24578</t>
   </si>
   <si>
     <t>540-291-3205</t>
@@ -1544,19 +1547,19 @@
     <t>206-789-6000</t>
   </si>
   <si>
-    <t>Woodland Park Zoo 5500</t>
-  </si>
-  <si>
-    <t>Phinney Ave N Seattle, WA 98103-5865</t>
+    <t>Woodland Park Zoo</t>
+  </si>
+  <si>
+    <t>5500 Phinney Ave N Seattle, WA 98103-5865</t>
   </si>
   <si>
     <t>206-684-4800</t>
   </si>
   <si>
-    <t>Olympic Game Farm 1423</t>
-  </si>
-  <si>
-    <t>Ward Rd Sequim, WA 98382-7838</t>
+    <t>Olympic Game Farm</t>
+  </si>
+  <si>
+    <t>1423 Ward Rd Sequim, WA 98382-7838</t>
   </si>
   <si>
     <t>360-683-4295</t>
@@ -1571,19 +1574,19 @@
     <t>253-591-5337</t>
   </si>
   <si>
-    <t>Jo-Don Farms Inc 5907</t>
-  </si>
-  <si>
-    <t>Nicholson Rd Franksville, Wisconsin 53126-9334</t>
+    <t>Jo-Don Farms Inc</t>
+  </si>
+  <si>
+    <t>5907 Nicholson Rd Franksville, Wisconsin 53126-9334</t>
   </si>
   <si>
     <t>262-835-2777</t>
   </si>
   <si>
-    <t>Zoo-New 4418</t>
-  </si>
-  <si>
-    <t>Reforestation Rd Green Bay, Wisconsin 54313-8514</t>
+    <t>Zoo-New</t>
+  </si>
+  <si>
+    <t>4418 Reforestation Rd Green Bay, Wisconsin 54313-8514</t>
   </si>
   <si>
     <t>920-448-4466</t>
@@ -1595,10 +1598,10 @@
     <t>Recreational 9503 N State Road 27 Hayward, Wisconsin 54843-2005</t>
   </si>
   <si>
-    <t>Warbonnet Zoo 5610 Us</t>
-  </si>
-  <si>
-    <t>Highway 51 Hazelhurst, WI 54531-9746</t>
+    <t>Warbonnet Zoo</t>
+  </si>
+  <si>
+    <t>5610 Us Highway 51 Hazelhurst, WI 54531-9746</t>
   </si>
   <si>
     <t>715-356-5093</t>
@@ -1613,9 +1616,6 @@
     <t>262-245-0770</t>
   </si>
   <si>
-    <t>Zoological Society</t>
-  </si>
-  <si>
     <t>Henry Vilas 222 W Washington Ave Madison, WI 53703-2719</t>
   </si>
   <si>
@@ -1661,10 +1661,10 @@
     <t>262-895-6430</t>
   </si>
   <si>
-    <t>J Rs Petting Zoo 1277 W</t>
-  </si>
-  <si>
-    <t>Fulton St Waupaca, WI 54981-8237</t>
+    <t>J Rs Petting Zoo</t>
+  </si>
+  <si>
+    <t>1277 W Fulton St Waupaca, WI 54981-8237</t>
   </si>
   <si>
     <t>715-258-9808</t>
@@ -2140,14 +2140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a2112a09-3426-4599-9925-9d847af5e129}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f69a41ec-8e5c-4768-b408-419b8b112385}">
   <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="62.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="12.4285714285714" customWidth="1"/>
   </cols>
@@ -2401,1745 +2401,1773 @@
       <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="12.75">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A35" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A37" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A39" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A41" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="12.75">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A43" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A45" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A47" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.75">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A49" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="12.75">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A51" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="12.75">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A53" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="12.75">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A55" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.75">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A57" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12.75">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A59" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="12.75">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A61" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.75">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A63" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="12.75">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A65" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75">
       <c r="A66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A67" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.75">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B68" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A69" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="12.75">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A71" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.75">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A73" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.75">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A75" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.75">
       <c r="A76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A77" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12.75">
       <c r="A78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A79" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12.75">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A81" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.75">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A83" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.75">
       <c r="A84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A85" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="12.75">
       <c r="A86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C86" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A87" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.75">
       <c r="A88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C88" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A89" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.75">
       <c r="A90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A91" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.75">
       <c r="A92" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B92" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C92" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A93" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.75">
       <c r="A94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C94" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A95" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12.75">
       <c r="A96" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B96" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C96" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A97" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="12.75">
       <c r="A98" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A99" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="12.75">
       <c r="A100" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B100" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C100" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A101" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="12.75">
       <c r="A102" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B102" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C102" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A103" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12.75">
       <c r="A104" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B104" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C104" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A105" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="12.75">
       <c r="A106" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B106" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C106" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A107" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="12.75">
       <c r="A108" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B108" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C108" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A109" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="12.75">
       <c r="A110" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B110" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C110" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A111" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="12.75">
       <c r="A112" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B112" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C112" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A113" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="12.75">
       <c r="A114" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B114" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A115" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="12.75">
       <c r="A116" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B116" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C116" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A117" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="12.75">
       <c r="A118" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B118" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C118" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A119" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="12.75">
       <c r="A120" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B120" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C120" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A121" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12.75">
       <c r="A122" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B122" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C122" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A123" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="12.75">
       <c r="A124" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B124" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C124" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A125" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="12.75">
       <c r="A126" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B126" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C126" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A127" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12.75">
       <c r="A128" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B128" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C128" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A129" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="12.75">
       <c r="A130" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B130" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C130" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="131" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A131" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="12.75">
       <c r="A132" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B132" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C132" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A133" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="12.75">
       <c r="A134" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B134" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C134" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="135" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A135" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="12.75">
       <c r="A136" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B136" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C136" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A137" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="12.75">
       <c r="A138" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B138" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C138" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="139" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A139" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="12.75">
       <c r="A140" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B140" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C140" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A141" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="12.75">
       <c r="A142" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B142" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C142" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A143" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="12.75">
       <c r="A144" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B144" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C144" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A145" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="12.75">
       <c r="A146" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C146" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A147" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="12.75">
       <c r="A148" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B148" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C148" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A149" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="12.75">
       <c r="A150" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B150" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C150" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="151" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A151" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="12.75">
       <c r="A152" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B152" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C152" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A153" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12.75">
       <c r="A154" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B154" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C154" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="155" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A155" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="12.75">
       <c r="A156" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B156" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C156" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="157" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A157" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="12.75">
       <c r="A158" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B158" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C158" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A159" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="12.75">
       <c r="A160" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B160" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C160" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="161" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A161" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="12.75">
       <c r="A162" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B162" t="s">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A163" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="12.75">
       <c r="A164" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B164" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C164" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="165" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A165" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="12.75">
       <c r="A166" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B166" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A167" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="12.75">
       <c r="A168" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B168" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C168" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A169" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="12.75">
       <c r="A170" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B170" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C170" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="171" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A171" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="12.75">
       <c r="A172" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B172" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C172" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="173" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A173" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C173" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="174" spans="1:3" ht="12.75">
       <c r="A174" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B174" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C174" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="175" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A175" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="12.75">
       <c r="A176" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B176" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C176" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="177" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A177" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="12.75">
       <c r="A178" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B178" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C178" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="179" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A179" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="12.75">
       <c r="A180" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B180" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C180" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="181" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A181" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C181" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="182" spans="1:3" ht="12.75">
       <c r="A182" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B182" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C182" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="183" spans="1:3" s="2" customFormat="1" ht="12.75">
       <c r="A183" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="12.75">
       <c r="A184" t="s">
-        <v>532</v>
+        <v>102</v>
       </c>
       <c r="B184" t="s">
         <v>533</v>
@@ -4155,7 +4183,9 @@
       <c r="B185" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="186" spans="1:3" ht="12.75">
       <c r="A186" t="s">
@@ -4163,6 +4193,9 @@
       </c>
       <c r="B186" t="s">
         <v>538</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:3" s="2" customFormat="1" ht="12.75">
